--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B302E-AD8D-4082-8C58-28916D98C4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3294B4-9C6A-454B-B8C5-86052292DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="304">
   <si>
     <t>UC_N</t>
   </si>
@@ -276,15 +276,21 @@
     <t>0121h01</t>
   </si>
   <si>
-    <t>W,R,S,T</t>
+    <t>m01,m02,m03,m04,m05,m06,m07,m08,m09,m10,m11,m12</t>
   </si>
   <si>
     <t>0121h02</t>
   </si>
   <si>
+    <t>m01</t>
+  </si>
+  <si>
     <t>0121h03</t>
   </si>
   <si>
+    <t>m07</t>
+  </si>
+  <si>
     <t>0121h04</t>
   </si>
   <si>
@@ -921,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Wb0121h13,Tc0917h08,Tc0917h17,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,TaD,Wb0122h12,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h10,Tc0917h14,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,RaD,Wb0122h11,Wb0122h15</t>
-  </si>
-  <si>
-    <t>SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,RaN,Tc0917h20,Wb0122h20,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03</t>
+    <t>RaD,Wb0122h11,Wb0122h15,Tc0916h12,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Wb0121h13,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,TaD,Wb0122h12,Wb0121h14,Wb0121h16,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</t>
+  </si>
+  <si>
+    <t>Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h24,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,RaN,Tc0917h20,Wb0122h20,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Wb0121h05,Wb0121h24,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,RaN,Tc0917h20,Wb0122h20,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03</v>
+        <v>Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h24,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,RaN,Tc0917h20,Wb0122h20,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Wb0121h05,Wb0121h24,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1527,7 +1533,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Wb0121h13,Tc0917h08,Tc0917h17,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,TaD,Wb0122h12,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h10,Tc0917h14,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,RaD,Wb0122h11,Wb0122h15</v>
+        <v>RaD,Wb0122h11,Wb0122h15,Tc0916h12,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Wb0121h13,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,TaD,Wb0122h12,Wb0121h14,Wb0121h16,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -1550,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1558,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50573FBB-E5F4-4615-B1E1-6BD51B030C6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A0347-59A7-4144-81CA-854B135BF65E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2149,7 +2155,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -2197,7 +2203,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2211,10 +2217,10 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -2225,7 +2231,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2233,7 +2242,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2241,7 +2253,10 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -2249,7 +2264,10 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2257,7 +2275,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2265,7 +2286,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -2273,7 +2297,10 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -2281,7 +2308,10 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -2289,7 +2319,10 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -2297,7 +2330,10 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -2305,7 +2341,10 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
@@ -2313,7 +2352,10 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -2321,7 +2363,10 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -2329,7 +2374,10 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
@@ -2337,7 +2385,10 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
@@ -2345,7 +2396,10 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
       <c r="F22" t="s">
         <v>62</v>
@@ -2353,7 +2407,10 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>62</v>
@@ -2361,7 +2418,10 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>62</v>
@@ -2369,7 +2429,10 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
@@ -2377,7 +2440,10 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
@@ -2385,7 +2451,10 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
@@ -2393,7 +2462,10 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>62</v>
@@ -2401,7 +2473,10 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2409,7 +2484,10 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -2417,7 +2495,10 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
@@ -2425,7 +2506,10 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
@@ -2433,7 +2517,10 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
       </c>
       <c r="F33" t="s">
         <v>62</v>
@@ -2441,7 +2528,10 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -2449,7 +2539,10 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
       <c r="F35" t="s">
         <v>62</v>
@@ -2457,7 +2550,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
       </c>
       <c r="F36" t="s">
         <v>62</v>
@@ -2465,7 +2561,10 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
@@ -2473,7 +2572,10 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>62</v>
@@ -2481,7 +2583,10 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
       </c>
       <c r="F39" t="s">
         <v>62</v>
@@ -2489,7 +2594,10 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
       </c>
       <c r="F40" t="s">
         <v>62</v>
@@ -2497,7 +2605,10 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -2505,7 +2616,10 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
       </c>
       <c r="F42" t="s">
         <v>62</v>
@@ -2513,7 +2627,10 @@
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
       </c>
       <c r="F43" t="s">
         <v>62</v>
@@ -2521,7 +2638,10 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>62</v>
@@ -2529,7 +2649,10 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
       </c>
       <c r="F45" t="s">
         <v>62</v>
@@ -2537,7 +2660,10 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
@@ -2545,7 +2671,10 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
       </c>
       <c r="F47" t="s">
         <v>62</v>
@@ -2553,7 +2682,10 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>62</v>
@@ -2561,7 +2693,10 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
       </c>
       <c r="F49" t="s">
         <v>62</v>
@@ -2569,7 +2704,10 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -2577,7 +2715,10 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
       </c>
       <c r="F51" t="s">
         <v>62</v>
@@ -2585,410 +2726,563 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="E57" t="s">
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="E59" t="s">
+        <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D62" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D64" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D65" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D66" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D67" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D68" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D70" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D71" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="E71" t="s">
+        <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>78</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="E78" t="s">
+        <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>78</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>78</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>78</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="E85" t="s">
+        <v>78</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>78</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D87" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="E87" t="s">
+        <v>78</v>
       </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D88" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="E88" t="s">
+        <v>78</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D89" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D90" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="E90" t="s">
+        <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="E92" t="s">
+        <v>78</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="E93" t="s">
+        <v>78</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="E94" t="s">
+        <v>78</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>78</v>
       </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D96" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="E96" t="s">
+        <v>78</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D97" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="E97" t="s">
+        <v>78</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D98" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="E98" t="s">
+        <v>78</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D99" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="E99" t="s">
+        <v>78</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D100" t="s">
         <v>47</v>
       </c>
+      <c r="E100" t="s">
+        <v>78</v>
+      </c>
       <c r="F100" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D101" t="s">
         <v>46</v>
       </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
       <c r="F101" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D102" t="s">
         <v>55</v>
       </c>
+      <c r="E102" t="s">
+        <v>78</v>
+      </c>
       <c r="F102" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED718C8B-0730-40BF-A852-86FF3D6900B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241E74A-6563-443D-ACE3-948BF6E87D8B}">
   <dimension ref="B2:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3006,13 +3300,13 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
@@ -3020,2878 +3314,2878 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
         <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>0.2343260000611225</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" t="s">
         <v>180</v>
-      </c>
-      <c r="H4" t="s">
-        <v>178</v>
       </c>
       <c r="I4">
         <v>9.4347970063098849E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
         <v>33</v>
       </c>
       <c r="N4">
-        <v>0.17228315054835494</v>
+        <v>0.17228315054835491</v>
       </c>
       <c r="O4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>181</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I5">
         <v>6.1539299555074721E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.48574277168494512</v>
+        <v>0.39361914257228309</v>
       </c>
       <c r="O5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6">
         <v>1.2803719906939717E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I6">
         <v>9.0651435905611828E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
       </c>
       <c r="N6">
-        <v>0.14835493519441678</v>
+        <v>0.14835493519441673</v>
       </c>
       <c r="O6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C7">
         <v>0.2643989655767644</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I7">
         <v>0.1569238770863694</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N7">
-        <v>0.39361914257228325</v>
+        <v>0.48574277168494506</v>
       </c>
       <c r="O7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I8">
         <v>8.4196987190701192E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I9">
         <v>1.6590027151339549E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <v>0.2529128119502646</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I10">
         <v>0.23530639604895501</v>
       </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I11">
         <v>0.11545051085063252</v>
       </c>
       <c r="J11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12">
         <v>2.0930700908347627E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I12">
         <v>1.8708580217523859E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I13">
         <v>1.5870718785719999E-4</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I14">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I15">
         <v>2.18117004002E-4</v>
       </c>
       <c r="J15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I16">
         <v>2.1997594578100001E-4</v>
       </c>
       <c r="J16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I17">
         <v>2.2028679257320001E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I18">
         <v>2.2247092341530001E-4</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I19">
         <v>2.2215802483480001E-4</v>
       </c>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20">
         <v>1.959196301304E-4</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I20">
         <v>1.7982471839280001E-4</v>
       </c>
       <c r="J20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21">
         <v>2.6006163680130002E-4</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I21">
         <v>2.196653915505E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C22">
         <v>2.4970367350869997E-4</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I22">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C23">
         <v>2.777423419197E-4</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I23">
         <v>1.4653568480090001E-4</v>
       </c>
       <c r="J23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24">
         <v>2.9325667121810002E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I24">
         <v>1.6891587739249999E-4</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C25">
         <v>2.9062448071570001E-4</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I25">
         <v>2.1382026469169999E-4</v>
       </c>
       <c r="J25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C26">
         <v>3.2974953856750001E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I26">
         <v>2.5871313650760002E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27">
         <v>3.0890669435880002E-4</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I27">
         <v>2.9869201220079997E-4</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28">
         <v>2.8569899676979997E-4</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I28">
         <v>3.2899871432689998E-4</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C29">
         <v>2.9104776449229998E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I29">
         <v>2.8815093129159997E-4</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C30">
         <v>1.9542343622960001E-4</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I30">
         <v>1.9119340269449999E-4</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I31">
         <v>8.6818847502628699E-5</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I32">
         <v>9.1411209654710201E-5</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I33">
         <v>1.003378815307E-4</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I34">
         <v>1.108081668558E-4</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I35">
         <v>1.482008471995E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I36">
         <v>1.4843975233440001E-4</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I37">
         <v>1.5156892085349999E-4</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I38">
         <v>1.482008471995E-4</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I39">
         <v>1.5327192659929999E-4</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I40">
         <v>1.448830423612E-4</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I41">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J41" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I42">
         <v>1.2198261808129999E-4</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I43">
         <v>1.2031259988E-4</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C44">
         <v>1.4913833414400001E-4</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I44">
         <v>9.6341800525102497E-5</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C45">
         <v>2.351851074806E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I45">
         <v>1.205205133131E-4</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C46">
         <v>2.7409211005349998E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I46">
         <v>1.0406523055139999E-4</v>
       </c>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C47">
         <v>3.1890145721779999E-4</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I47">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C48">
         <v>3.2933975666569999E-4</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I48">
         <v>1.549876412844E-4</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C49">
         <v>3.1201145048089998E-4</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I49">
         <v>1.6350342687650001E-4</v>
       </c>
       <c r="J49" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C50">
         <v>2.8834603933449999E-4</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I50">
         <v>1.8978203979030001E-4</v>
       </c>
       <c r="J50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C51">
         <v>2.8210682296550001E-4</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I51">
         <v>2.196653915505E-4</v>
       </c>
       <c r="J51" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C52">
         <v>2.94702046921E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I52">
         <v>2.4211826404469999E-4</v>
       </c>
       <c r="J52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C53">
         <v>2.312682135861E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I53">
         <v>2.3522913910230001E-4</v>
       </c>
       <c r="J53" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C54">
         <v>2.1377855999679999E-4</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I54">
         <v>1.7418041482329999E-4</v>
       </c>
       <c r="J54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I55">
         <v>6.7553869037638694E-5</v>
       </c>
       <c r="J55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I56">
         <v>5.9288981588486497E-5</v>
       </c>
       <c r="J56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I57">
         <v>6.1122533496169607E-5</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I58">
         <v>1.029375016131E-4</v>
       </c>
       <c r="J58" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I59">
         <v>1.176314474024E-4</v>
       </c>
       <c r="J59" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I60">
         <v>1.0275034256520001E-4</v>
       </c>
       <c r="J60" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C61">
         <v>0.2251253911522208</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I61">
         <v>0.11172180377771442</v>
       </c>
       <c r="J61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I62">
         <v>7.2649444256446802E-2</v>
       </c>
       <c r="J62" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C63">
         <v>8.7026138579921856E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I63">
         <v>1.1013510819187573E-2</v>
       </c>
       <c r="J63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I64">
         <v>1.080771040789E-4</v>
       </c>
       <c r="J64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I65">
         <v>1.3862497912890001E-4</v>
       </c>
       <c r="J65" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I66">
         <v>1.7232556805820001E-4</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I67">
         <v>1.7982471839280001E-4</v>
       </c>
       <c r="J67" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I68">
         <v>1.6172531101960001E-4</v>
       </c>
       <c r="J68" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I69">
         <v>1.356772195034E-4</v>
       </c>
       <c r="J69" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C70">
         <v>2.0781410678112299E-5</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I70">
         <v>1.106115823359E-4</v>
       </c>
       <c r="J70" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C71">
         <v>1.169289365913E-4</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I71">
         <v>1.4324287263530001E-4</v>
       </c>
       <c r="J71" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C72">
         <v>1.7621364378420001E-4</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I72">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C73">
         <v>2.2835855955550001E-4</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I73">
         <v>1.188638973011E-4</v>
       </c>
       <c r="J73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C74">
         <v>2.3139715649090001E-4</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I74">
         <v>1.1199256721999999E-4</v>
       </c>
       <c r="J74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C75">
         <v>2.6404739025749998E-4</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I75">
         <v>1.307844228067E-4</v>
       </c>
       <c r="J75" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C76">
         <v>3.098876055668E-4</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I76">
         <v>1.096321466477E-4</v>
       </c>
       <c r="J76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C77">
         <v>2.8473698818659999E-4</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I77">
         <v>1.014465774318E-4</v>
       </c>
       <c r="J77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C78">
         <v>2.555317577885E-4</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I78">
         <v>8.0460917023624407E-5</v>
       </c>
       <c r="J78" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C79">
         <v>2.366014541525E-4</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I79">
         <v>5.8386119324740498E-5</v>
       </c>
       <c r="J79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C80">
         <v>1.703666568797E-4</v>
       </c>
       <c r="D80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I80">
         <v>5.4989528598883298E-5</v>
       </c>
       <c r="J80" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C81">
         <v>2.006547376409E-4</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I81">
         <v>4.4622655580946802E-5</v>
       </c>
       <c r="J81" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C82">
         <v>1.506525694086E-4</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I82">
         <v>3.8297085420268497E-5</v>
       </c>
       <c r="J82" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K82" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I83">
         <v>2.80443108319073E-5</v>
       </c>
       <c r="J83" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I84">
         <v>3.8394040020930301E-5</v>
       </c>
       <c r="J84" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I85">
         <v>6.1254928829620307E-5</v>
       </c>
       <c r="J85" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I86">
         <v>6.8834702148171798E-5</v>
       </c>
       <c r="J86" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I87">
         <v>1.108081668558E-4</v>
       </c>
       <c r="J87" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I88">
         <v>2.2215802483480001E-4</v>
       </c>
       <c r="J88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K88" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I89">
         <v>1.858672108083E-4</v>
       </c>
       <c r="J89" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I90">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I91">
         <v>1.188638973011E-4</v>
       </c>
       <c r="J91" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I92">
         <v>1.1804131270480001E-4</v>
       </c>
       <c r="J92" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H93" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I93">
         <v>1.053912886357E-4</v>
       </c>
       <c r="J93" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C94">
         <v>3.0843007817656403E-5</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I94">
         <v>9.6521096633969496E-5</v>
       </c>
       <c r="J94" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C95">
         <v>1.5571239700929999E-4</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I95">
         <v>1.5820784730780001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C96">
         <v>2.065375045138E-4</v>
       </c>
       <c r="D96" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I96">
         <v>1.6375850237949999E-4</v>
       </c>
       <c r="J96" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C97">
         <v>2.5308521806529998E-4</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I97">
         <v>9.5448649866951402E-5</v>
       </c>
       <c r="J97" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C98">
         <v>2.939108370547E-4</v>
       </c>
       <c r="D98" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I98">
         <v>5.4866325817414098E-5</v>
       </c>
       <c r="J98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K98" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C99">
         <v>2.8276841483319999E-4</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I99">
         <v>3.7051491298023797E-5</v>
       </c>
       <c r="J99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C100">
         <v>2.9795869913520001E-4</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I100">
         <v>4.1074067890073697E-5</v>
       </c>
       <c r="J100" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C101">
         <v>2.6961758872760003E-4</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I101">
         <v>2.9729742675774001E-5</v>
       </c>
       <c r="J101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C102">
         <v>2.447653627817E-4</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I102">
         <v>2.5897857979090199E-5</v>
       </c>
       <c r="J102" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C103">
         <v>2.3286481028730001E-4</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I103">
         <v>2.50125391076427E-5</v>
       </c>
       <c r="J103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K103" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C104">
         <v>1.0292276671379999E-4</v>
       </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I104">
         <v>2.4939687097836201E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K104" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C105">
         <v>1.154828857947E-4</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I105">
         <v>2.9241490314450699E-5</v>
       </c>
       <c r="J105" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C106">
         <v>1.211421966388E-4</v>
       </c>
       <c r="D106" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I106">
         <v>2.9160638313348499E-5</v>
       </c>
       <c r="J106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I107">
         <v>4.4730007553216001E-5</v>
       </c>
       <c r="J107" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K107" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I108">
         <v>6.2993503544958495E-5</v>
       </c>
       <c r="J108" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E109" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I109">
         <v>7.9039193157295294E-5</v>
       </c>
       <c r="J109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K109" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E110" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I110">
         <v>7.1738744902136105E-5</v>
       </c>
       <c r="J110" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K110" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I111">
         <v>7.1738744902136105E-5</v>
       </c>
       <c r="J111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K111" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +6194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70172CBB-03ED-4732-A7D0-6DDA250EBC47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14472598-DA13-4F58-9B8A-FC7C06E5F12D}">
   <dimension ref="B2:O211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5909,45 +6203,45 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -5958,16 +6252,16 @@
         <v>0.1883777937995674</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J4">
         <v>0.15698113307482336</v>
@@ -5976,7 +6270,7 @@
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O4">
         <v>0.13363419092319107</v>
@@ -5990,16 +6284,16 @@
         <v>3.3485319344653562E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J5">
         <v>6.3800399400598298E-2</v>
@@ -6008,7 +6302,7 @@
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O5">
         <v>0.17004374800125466</v>
@@ -6022,16 +6316,16 @@
         <v>3.0191681376326978E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J6">
         <v>2.416408338836783E-2</v>
@@ -6040,7 +6334,7 @@
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O6">
         <v>6.9415004962052107E-2</v>
@@ -6054,16 +6348,16 @@
         <v>0.1883777937995674</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J7">
         <v>0.17549524994275525</v>
@@ -6072,7 +6366,7 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O7">
         <v>0.16523765102001819</v>
@@ -6086,16 +6380,16 @@
         <v>3.3485319344653562E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J8">
         <v>6.9988989435793195E-2</v>
@@ -6104,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O8">
         <v>0.1787354398365828</v>
@@ -6118,16 +6412,16 @@
         <v>3.0191681376326978E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J9">
         <v>2.742697811404228E-2</v>
@@ -6136,7 +6430,7 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O9">
         <v>9.3246527435216997E-2</v>
@@ -6150,16 +6444,16 @@
         <v>0.18223503965392934</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J10">
         <v>0.15023271662690602</v>
@@ -6168,7 +6462,7 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O10">
         <v>0.13937816468974629</v>
@@ -6182,16 +6476,16 @@
         <v>3.2393406757327908E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J11">
         <v>6.0066814075893288E-2</v>
@@ -6200,7 +6494,7 @@
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O11">
         <v>0.1614476395684139</v>
@@ -6214,16 +6508,16 @@
         <v>2.9207170027098918E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J12">
         <v>2.2888608999232854E-2</v>
@@ -6232,7 +6526,7 @@
         <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O12">
         <v>4.7685987075025915E-2</v>
@@ -6246,16 +6540,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J13">
         <v>7.1881595074280337E-5</v>
@@ -6264,7 +6558,7 @@
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6278,16 +6572,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J14">
         <v>7.1881595074280337E-5</v>
@@ -6296,7 +6590,7 @@
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6310,16 +6604,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J15">
         <v>7.3867990126430215E-5</v>
@@ -6328,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6342,16 +6636,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J16">
         <v>8.6945594025994493E-5</v>
@@ -6360,7 +6654,7 @@
         <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6374,16 +6668,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J17">
         <v>9.7324357231604343E-5</v>
@@ -6392,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6406,16 +6700,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J18">
         <v>1.1877621625983699E-4</v>
@@ -6424,7 +6718,7 @@
         <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6438,16 +6732,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J19">
         <v>1.3397908173495368E-4</v>
@@ -6456,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -6470,16 +6764,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J20">
         <v>1.3921978357466825E-4</v>
@@ -6488,7 +6782,7 @@
         <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6502,16 +6796,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J21">
         <v>1.397873250181397E-4</v>
@@ -6520,7 +6814,7 @@
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6534,16 +6828,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J22">
         <v>1.4109146280313778E-4</v>
@@ -6552,7 +6846,7 @@
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -6566,16 +6860,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J23">
         <v>1.4099486000424907E-4</v>
@@ -6584,7 +6878,7 @@
         <v>14</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6598,16 +6892,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J24">
         <v>1.4097070930452684E-4</v>
@@ -6616,7 +6910,7 @@
         <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -6630,16 +6924,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J25">
         <v>1.405118460098053E-4</v>
@@ -6648,7 +6942,7 @@
         <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -6662,16 +6956,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J26">
         <v>1.4017373621369466E-4</v>
@@ -6680,7 +6974,7 @@
         <v>14</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6694,16 +6988,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H27" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J27">
         <v>1.3877903330473837E-4</v>
@@ -6712,7 +7006,7 @@
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -6726,16 +7020,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J28">
         <v>1.4099486000424905E-4</v>
@@ -6744,7 +7038,7 @@
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6758,16 +7052,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J29">
         <v>1.4099486000424907E-4</v>
@@ -6776,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -6790,16 +7084,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J30">
         <v>1.4217824429063619E-4</v>
@@ -6808,7 +7102,7 @@
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6822,16 +7116,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J31">
         <v>1.3903261565182136E-4</v>
@@ -6840,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -6854,16 +7148,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J32">
         <v>1.2975874695850156E-4</v>
@@ -6872,7 +7166,7 @@
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6886,16 +7180,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J33">
         <v>1.1852263391275404E-4</v>
@@ -6904,7 +7198,7 @@
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -6918,16 +7212,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J34">
         <v>9.2711573584666648E-5</v>
@@ -6936,7 +7230,7 @@
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -6950,16 +7244,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J35">
         <v>8.1849796384613022E-5</v>
@@ -6968,7 +7262,7 @@
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -6982,16 +7276,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J36">
         <v>7.188159507428035E-5</v>
@@ -7000,7 +7294,7 @@
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -7014,16 +7308,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J37">
         <v>7.188159507428035E-5</v>
@@ -7032,7 +7326,7 @@
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -7046,16 +7340,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H38" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J38">
         <v>7.3867990126430243E-5</v>
@@ -7064,7 +7358,7 @@
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -7078,16 +7372,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J39">
         <v>8.694559402599452E-5</v>
@@ -7096,7 +7390,7 @@
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -7110,16 +7404,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H40" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J40">
         <v>9.732435723160437E-5</v>
@@ -7128,7 +7422,7 @@
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -7142,16 +7436,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H41" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J41">
         <v>1.1877621625983699E-4</v>
@@ -7160,7 +7454,7 @@
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7174,16 +7468,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H42" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J42">
         <v>1.3397908173495368E-4</v>
@@ -7192,7 +7486,7 @@
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -7206,16 +7500,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H43" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J43">
         <v>1.3921978357466828E-4</v>
@@ -7224,7 +7518,7 @@
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -7238,16 +7532,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J44">
         <v>1.4007109573987539E-4</v>
@@ -7256,7 +7550,7 @@
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -7270,16 +7564,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J45">
         <v>1.4159862749730373E-4</v>
@@ -7288,7 +7582,7 @@
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -7302,16 +7596,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H46" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J46">
         <v>1.4121825397667929E-4</v>
@@ -7320,7 +7614,7 @@
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -7334,16 +7628,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J47">
         <v>1.4030052738723615E-4</v>
@@ -7352,7 +7646,7 @@
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -7366,16 +7660,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J48">
         <v>1.4074731533209666E-4</v>
@@ -7384,7 +7678,7 @@
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -7398,16 +7692,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H49" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J49">
         <v>1.4074731533209666E-4</v>
@@ -7416,7 +7710,7 @@
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -7430,16 +7724,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H50" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J50">
         <v>1.3921978357466831E-4</v>
@@ -7448,7 +7742,7 @@
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -7462,16 +7756,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H51" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J51">
         <v>1.4099486000424907E-4</v>
@@ -7480,7 +7774,7 @@
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -7494,16 +7788,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J52">
         <v>1.4099486000424907E-4</v>
@@ -7512,7 +7806,7 @@
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -7526,16 +7820,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J53">
         <v>1.4217824429063622E-4</v>
@@ -7544,7 +7838,7 @@
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -7558,16 +7852,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J54">
         <v>1.3903261565182136E-4</v>
@@ -7576,7 +7870,7 @@
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -7590,16 +7884,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H55" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J55">
         <v>1.2975874695850156E-4</v>
@@ -7608,7 +7902,7 @@
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7622,16 +7916,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J56">
         <v>1.1852263391275404E-4</v>
@@ -7640,7 +7934,7 @@
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7654,16 +7948,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E57" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H57" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J57">
         <v>9.2711573584666662E-5</v>
@@ -7672,7 +7966,7 @@
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7686,16 +7980,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J58">
         <v>8.1849796384613049E-5</v>
@@ -7704,7 +7998,7 @@
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -7718,16 +8012,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J59">
         <v>0.15299359278847693</v>
@@ -7736,7 +8030,7 @@
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O59">
         <v>0.15169955718528128</v>
@@ -7750,16 +8044,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J60">
         <v>6.2157537746890437E-2</v>
@@ -7768,7 +8062,7 @@
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O60">
         <v>0.15537768469394608</v>
@@ -7782,16 +8076,16 @@
         <v>0.18018745493871671</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J61">
         <v>2.2640971651549598E-2</v>
@@ -7800,7 +8094,7 @@
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O61">
         <v>4.9807352721212395E-2</v>
@@ -7814,16 +8108,16 @@
         <v>3.2029435894886021E-2</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J62">
         <v>7.5998792030174098E-5</v>
@@ -7832,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -7846,16 +8140,16 @@
         <v>2.8878999577356238E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J63">
         <v>7.5998792030174098E-5</v>
@@ -7864,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -7878,16 +8172,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J64">
         <v>8.124553154481924E-5</v>
@@ -7896,7 +8190,7 @@
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -7910,16 +8204,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J65">
         <v>9.0151102067375708E-5</v>
@@ -7928,7 +8222,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -7942,16 +8236,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E66" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J66">
         <v>1.0075929692034636E-4</v>
@@ -7960,7 +8254,7 @@
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -7974,16 +8268,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E67" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H67" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J67">
         <v>1.2034551439504003E-4</v>
@@ -7992,7 +8286,7 @@
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -8006,16 +8300,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H68" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J68">
         <v>1.3491442400244936E-4</v>
@@ -8024,7 +8318,7 @@
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8038,16 +8332,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J69">
         <v>1.3844646383681921E-4</v>
@@ -8056,7 +8350,7 @@
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8070,16 +8364,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J70">
         <v>1.4427885781972738E-4</v>
@@ -8088,7 +8382,7 @@
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -8102,16 +8396,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H71" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J71">
         <v>1.4671807849166824E-4</v>
@@ -8120,7 +8414,7 @@
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -8134,16 +8428,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J72">
         <v>1.4662147569277951E-4</v>
@@ -8152,7 +8446,7 @@
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -8166,16 +8460,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J73">
         <v>1.4662147569277951E-4</v>
@@ -8184,7 +8478,7 @@
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -8198,16 +8492,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J74">
         <v>1.449430020620875E-4</v>
@@ -8216,7 +8510,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -8230,16 +8524,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E75" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J75">
         <v>1.4325245308153441E-4</v>
@@ -8248,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8262,16 +8556,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H76" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J76">
         <v>1.3786080936855618E-4</v>
@@ -8280,7 +8574,7 @@
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -8294,16 +8588,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J77">
         <v>1.4007663606806683E-4</v>
@@ -8312,7 +8606,7 @@
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -8326,16 +8620,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H78" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J78">
         <v>1.4043285888896907E-4</v>
@@ -8344,7 +8638,7 @@
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -8358,16 +8652,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H79" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J79">
         <v>1.4161624317535627E-4</v>
@@ -8376,7 +8670,7 @@
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -8390,16 +8684,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H80" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J80">
         <v>1.3781250796911183E-4</v>
@@ -8408,7 +8702,7 @@
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8422,16 +8716,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E81" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J81">
         <v>1.2672733679662798E-4</v>
@@ -8440,7 +8734,7 @@
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8454,16 +8748,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H82" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J82">
         <v>1.1780969092421039E-4</v>
@@ -8472,7 +8766,7 @@
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -8486,16 +8780,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D83" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J83">
         <v>9.5198598309312798E-5</v>
@@ -8504,7 +8798,7 @@
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -8518,16 +8812,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J84">
         <v>8.361230011759359E-5</v>
@@ -8536,7 +8830,7 @@
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -8550,16 +8844,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H85" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J85">
         <v>7.3994283953232587E-5</v>
@@ -8568,7 +8862,7 @@
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -8582,16 +8876,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J86">
         <v>7.3318064361011344E-5</v>
@@ -8600,7 +8894,7 @@
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -8614,16 +8908,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H87" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J87">
         <v>7.8806310872878333E-5</v>
@@ -8632,7 +8926,7 @@
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -8646,16 +8940,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E88" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J88">
         <v>8.7717919070365373E-5</v>
@@ -8664,7 +8958,7 @@
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -8678,16 +8972,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J89">
         <v>1.0008911500305567E-4</v>
@@ -8696,7 +8990,7 @@
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -8710,16 +9004,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H90" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J90">
         <v>1.2037570276969279E-4</v>
@@ -8728,7 +9022,7 @@
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -8742,16 +9036,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J91">
         <v>1.3491442400244931E-4</v>
@@ -8760,7 +9054,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -8774,16 +9068,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J92">
         <v>1.3886910108195749E-4</v>
@@ -8792,7 +9086,7 @@
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -8806,16 +9100,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E93" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J93">
         <v>1.4450828946708814E-4</v>
@@ -8824,7 +9118,7 @@
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -8838,16 +9132,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J94">
         <v>1.5379423351026905E-4</v>
@@ -8856,7 +9150,7 @@
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -8870,16 +9164,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D95" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J95">
         <v>1.5085992349402332E-4</v>
@@ -8888,7 +9182,7 @@
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -8902,16 +9196,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E96" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H96" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J96">
         <v>1.5085992349402332E-4</v>
@@ -8920,7 +9214,7 @@
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -8934,16 +9228,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H97" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J97">
         <v>1.4918144986333134E-4</v>
@@ -8952,7 +9246,7 @@
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -8966,16 +9260,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J98">
         <v>1.4589091702618337E-4</v>
@@ -8984,7 +9278,7 @@
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -8998,16 +9292,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J99">
         <v>1.3838608708751374E-4</v>
@@ -9016,7 +9310,7 @@
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -9030,16 +9324,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J100">
         <v>1.4060191378702439E-4</v>
@@ -9048,7 +9342,7 @@
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -9062,16 +9356,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E101" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J101">
         <v>1.4043285888896907E-4</v>
@@ -9080,7 +9374,7 @@
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -9094,16 +9388,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H102" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J102">
         <v>1.4161624317535627E-4</v>
@@ -9112,7 +9406,7 @@
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -9126,16 +9420,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H103" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J103">
         <v>1.3781250796911183E-4</v>
@@ -9144,7 +9438,7 @@
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -9158,16 +9452,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H104" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J104">
         <v>1.2699903216850257E-4</v>
@@ -9176,7 +9470,7 @@
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -9190,16 +9484,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H105" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J105">
         <v>1.1780969092421039E-4</v>
@@ -9208,7 +9502,7 @@
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -9222,16 +9516,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H106" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I106" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J106">
         <v>9.4981242011813114E-5</v>
@@ -9240,7 +9534,7 @@
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -9254,16 +9548,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E107" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I107" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J107">
         <v>8.3612300117593563E-5</v>
@@ -9272,7 +9566,7 @@
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -9286,16 +9580,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E108" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H108" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I108" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J108">
         <v>0.1433449377564199</v>
@@ -9309,16 +9603,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E109" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I109" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J109">
         <v>8.6616938881018096E-2</v>
@@ -9332,16 +9626,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J110">
         <v>2.2053706378496806E-2</v>
@@ -9355,16 +9649,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I111" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J111">
         <v>0.14356943657598828</v>
@@ -9372,10 +9666,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I112" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J112">
         <v>8.6501970578679976E-2</v>
@@ -9383,10 +9677,10 @@
     </row>
     <row r="113" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J113">
         <v>2.2108406445529302E-2</v>
@@ -9394,10 +9688,10 @@
     </row>
     <row r="114" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H114" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J114">
         <v>0.13867576211693525</v>
@@ -9405,10 +9699,10 @@
     </row>
     <row r="115" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H115" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J115">
         <v>8.3763991229191023E-2</v>
@@ -9416,10 +9710,10 @@
     </row>
     <row r="116" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H116" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I116" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J116">
         <v>2.1323833141833608E-2</v>
@@ -9427,10 +9721,10 @@
     </row>
     <row r="117" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H117" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I117" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J117">
         <v>1.1704624193942443E-4</v>
@@ -9438,10 +9732,10 @@
     </row>
     <row r="118" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I118" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J118">
         <v>1.1704624193942443E-4</v>
@@ -9449,10 +9743,10 @@
     </row>
     <row r="119" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H119" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I119" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J119">
         <v>1.1714284653105948E-4</v>
@@ -9460,10 +9754,10 @@
     </row>
     <row r="120" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I120" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J120">
         <v>1.1777885122857169E-4</v>
@@ -9471,10 +9765,10 @@
     </row>
     <row r="121" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H121" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I121" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J121">
         <v>1.1828360287909037E-4</v>
@@ -9482,10 +9776,10 @@
     </row>
     <row r="122" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I122" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J122">
         <v>1.1932687374255334E-4</v>
@@ -9493,10 +9787,10 @@
     </row>
     <row r="123" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H123" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I123" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J123">
         <v>1.2006623654418571E-4</v>
@@ -9504,10 +9798,10 @@
     </row>
     <row r="124" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H124" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I124" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J124">
         <v>1.2032110823275479E-4</v>
@@ -9515,10 +9809,10 @@
     </row>
     <row r="125" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H125" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I125" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J125">
         <v>1.203487095446505E-4</v>
@@ -9526,10 +9820,10 @@
     </row>
     <row r="126" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H126" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I126" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J126">
         <v>1.2041213383581516E-4</v>
@@ -9537,10 +9831,10 @@
     </row>
     <row r="127" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I127" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J127">
         <v>1.2040743574017333E-4</v>
@@ -9548,10 +9842,10 @@
     </row>
     <row r="128" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H128" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I128" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J128">
         <v>1.2040626121626288E-4</v>
@@ -9559,10 +9853,10 @@
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I129" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J129">
         <v>1.203839452619642E-4</v>
@@ -9570,10 +9864,10 @@
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H130" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I130" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J130">
         <v>1.2036750192721781E-4</v>
@@ -9581,10 +9875,10 @@
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I131" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J131">
         <v>1.2029967317138896E-4</v>
@@ -9592,10 +9886,10 @@
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H132" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I132" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J132">
         <v>1.2040743574017333E-4</v>
@@ -9603,10 +9897,10 @@
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H133" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I133" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J133">
         <v>1.2040743574017333E-4</v>
@@ -9614,10 +9908,10 @@
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I134" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J134">
         <v>1.2046498741178571E-4</v>
@@ -9625,10 +9919,10 @@
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H135" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I135" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J135">
         <v>1.2031200567244875E-4</v>
@@ -9636,10 +9930,10 @@
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H136" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I136" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J136">
         <v>1.1986098849083345E-4</v>
@@ -9647,10 +9941,10 @@
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H137" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I137" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J137">
         <v>1.1931454124149356E-4</v>
@@ -9658,10 +9952,10 @@
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I138" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J138">
         <v>1.1805926881219316E-4</v>
@@ -9669,10 +9963,10 @@
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I139" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J139">
         <v>1.1753102668346536E-4</v>
@@ -9680,10 +9974,10 @@
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H140" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I140" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J140">
         <v>1.1704624193942442E-4</v>
@@ -9691,10 +9985,10 @@
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H141" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I141" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J141">
         <v>1.1704624193942442E-4</v>
@@ -9702,10 +9996,10 @@
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H142" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I142" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J142">
         <v>1.1714284653105945E-4</v>
@@ -9713,10 +10007,10 @@
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H143" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I143" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J143">
         <v>1.1777885122857166E-4</v>
@@ -9724,10 +10018,10 @@
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H144" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I144" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J144">
         <v>1.1828360287909035E-4</v>
@@ -9735,10 +10029,10 @@
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H145" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I145" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J145">
         <v>1.1932687374255334E-4</v>
@@ -9746,10 +10040,10 @@
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H146" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I146" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J146">
         <v>1.2006623654418571E-4</v>
@@ -9757,10 +10051,10 @@
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I147" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J147">
         <v>1.2032110823275476E-4</v>
@@ -9768,10 +10062,10 @@
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H148" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J148">
         <v>1.2036251020059835E-4</v>
@@ -9779,10 +10073,10 @@
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H149" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I149" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J149">
         <v>1.2043679883793474E-4</v>
@@ -9790,10 +10084,10 @@
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I150" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J150">
         <v>1.2041830008634504E-4</v>
@@ -9801,10 +10095,10 @@
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H151" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I151" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J151">
         <v>1.203736681777477E-4</v>
@@ -9812,10 +10106,10 @@
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H152" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I152" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J152">
         <v>1.2039539687009114E-4</v>
@@ -9823,10 +10117,10 @@
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H153" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I153" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J153">
         <v>1.2039539687009114E-4</v>
@@ -9834,10 +10128,10 @@
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H154" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I154" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J154">
         <v>1.2032110823275476E-4</v>
@@ -9845,10 +10139,10 @@
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I155" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J155">
         <v>1.2040743574017331E-4</v>
@@ -9856,10 +10150,10 @@
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H156" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I156" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J156">
         <v>1.2040743574017331E-4</v>
@@ -9867,10 +10161,10 @@
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H157" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I157" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J157">
         <v>1.2046498741178569E-4</v>
@@ -9878,10 +10172,10 @@
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H158" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I158" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J158">
         <v>1.2031200567244873E-4</v>
@@ -9889,10 +10183,10 @@
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H159" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I159" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J159">
         <v>1.1986098849083342E-4</v>
@@ -9900,10 +10194,10 @@
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H160" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I160" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J160">
         <v>1.1931454124149355E-4</v>
@@ -9911,10 +10205,10 @@
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H161" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I161" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J161">
         <v>1.1805926881219316E-4</v>
@@ -9922,10 +10216,10 @@
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H162" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I162" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J162">
         <v>1.1753102668346533E-4</v>
@@ -9933,10 +10227,10 @@
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H163" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I163" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J163">
         <v>0.13715570565395938</v>
@@ -9944,10 +10238,10 @@
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H164" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I164" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J164">
         <v>8.2847622577426325E-2</v>
@@ -9955,10 +10249,10 @@
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H165" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I165" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J165">
         <v>2.1057277997205793E-2</v>
@@ -9966,10 +10260,10 @@
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H166" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I166" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J166">
         <v>1.1704831228645575E-4</v>
@@ -9977,10 +10271,10 @@
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I167" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J167">
         <v>1.1704831228645575E-4</v>
@@ -9988,10 +10282,10 @@
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H168" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I168" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J168">
         <v>1.1730347760600242E-4</v>
@@ -9999,10 +10293,10 @@
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H169" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I169" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J169">
         <v>1.1773658329798325E-4</v>
@@ -10010,10 +10304,10 @@
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H170" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I170" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J170">
         <v>1.1825249292565127E-4</v>
@@ -10021,10 +10315,10 @@
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I171" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J171">
         <v>1.1920503181703149E-4</v>
@@ -10032,10 +10326,10 @@
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H172" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I172" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J172">
         <v>1.1991356336601438E-4</v>
@@ -10043,10 +10337,10 @@
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H173" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I173" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J173">
         <v>1.2008533748791865E-4</v>
@@ -10054,10 +10348,10 @@
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H174" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I174" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J174">
         <v>1.2036898501229388E-4</v>
@@ -10065,10 +10359,10 @@
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H175" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I175" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J175">
         <v>1.2048761192724999E-4</v>
@@ -10076,10 +10370,10 @@
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H176" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I176" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J176">
         <v>1.2048291383160818E-4</v>
@@ -10087,10 +10381,10 @@
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H177" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I177" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J177">
         <v>1.2048291383160818E-4</v>
@@ -10098,10 +10392,10 @@
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H178" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I178" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J178">
         <v>1.2040128441983145E-4</v>
@@ -10109,10 +10403,10 @@
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H179" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I179" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J179">
         <v>1.203190677460995E-4</v>
@@ -10120,10 +10414,10 @@
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H180" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J180">
         <v>1.2005685528309007E-4</v>
@@ -10131,10 +10425,10 @@
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H181" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I181" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J181">
         <v>1.2016461785187446E-4</v>
@@ -10142,10 +10436,10 @@
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H182" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I182" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J182">
         <v>1.201819420795537E-4</v>
@@ -10153,10 +10447,10 @@
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H183" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I183" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J183">
         <v>1.2023949375116605E-4</v>
@@ -10164,10 +10458,10 @@
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H184" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I184" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J184">
         <v>1.2005450623526916E-4</v>
@@ -10175,10 +10469,10 @@
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H185" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I185" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J185">
         <v>1.1951539976036962E-4</v>
@@ -10186,10 +10480,10 @@
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H186" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I186" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J186">
         <v>1.1908170680643357E-4</v>
@@ -10197,10 +10491,10 @@
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H187" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I187" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J187">
         <v>1.1798205879526866E-4</v>
@@ -10208,10 +10502,10 @@
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H188" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I188" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J188">
         <v>1.1741858094922714E-4</v>
@@ -10219,10 +10513,10 @@
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H189" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I189" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J189">
         <v>1.1695082680188786E-4</v>
@@ -10230,10 +10524,10 @@
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H190" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I190" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J190">
         <v>1.1691794013239506E-4</v>
@@ -10241,10 +10535,10 @@
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H191" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I191" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J191">
         <v>1.1718485069104631E-4</v>
@@ -10252,10 +10546,10 @@
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H192" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I192" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J192">
         <v>1.1761825001400475E-4</v>
@@ -10263,10 +10557,10 @@
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H193" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I193" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J193">
         <v>1.1821989988713611E-4</v>
@@ -10274,10 +10568,10 @@
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H194" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I194" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J194">
         <v>1.1920649997191956E-4</v>
@@ -10285,10 +10579,10 @@
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H195" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I195" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J195">
         <v>1.1991356336601439E-4</v>
@@ -10296,10 +10590,10 @@
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H196" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I196" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J196">
         <v>1.2010589165635163E-4</v>
@@ -10307,10 +10601,10 @@
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H197" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I197" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J197">
         <v>1.2038014298944324E-4</v>
@@ -10318,10 +10612,10 @@
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H198" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J198">
         <v>1.2083174743301377E-4</v>
@@ -10329,10 +10623,10 @@
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I199" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J199">
         <v>1.206890427778933E-4</v>
@@ -10340,10 +10634,10 @@
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H200" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I200" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J200">
         <v>1.206890427778933E-4</v>
@@ -10351,10 +10645,10 @@
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H201" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I201" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J201">
         <v>1.2060741336611656E-4</v>
@@ -10362,10 +10656,10 @@
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H202" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J202">
         <v>1.2044738448331686E-4</v>
@@ -10373,10 +10667,10 @@
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H203" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I203" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J203">
         <v>1.2008240117814251E-4</v>
@@ -10384,10 +10678,10 @@
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H204" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I204" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J204">
         <v>1.2019016374692689E-4</v>
@@ -10395,10 +10689,10 @@
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H205" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I205" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J205">
         <v>1.201819420795537E-4</v>
@@ -10406,10 +10700,10 @@
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H206" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I206" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J206">
         <v>1.2023949375116605E-4</v>
@@ -10417,10 +10711,10 @@
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H207" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I207" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J207">
         <v>1.2005450623526916E-4</v>
@@ -10428,10 +10722,10 @@
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H208" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I208" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J208">
         <v>1.1952861315436227E-4</v>
@@ -10439,10 +10733,10 @@
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H209" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I209" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J209">
         <v>1.1908170680643357E-4</v>
@@ -10450,10 +10744,10 @@
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H210" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I210" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J210">
         <v>1.1797148808007455E-4</v>
@@ -10461,10 +10755,10 @@
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H211" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I211" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J211">
         <v>1.1741858094922717E-4</v>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3294B4-9C6A-454B-B8C5-86052292DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A3ECC-C1F2-4870-9439-8814029DFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="302">
   <si>
     <t>UC_N</t>
   </si>
@@ -276,21 +276,15 @@
     <t>0121h01</t>
   </si>
   <si>
-    <t>m01,m02,m03,m04,m05,m06,m07,m08,m09,m10,m11,m12</t>
+    <t>W,R,S,T</t>
   </si>
   <si>
     <t>0121h02</t>
   </si>
   <si>
-    <t>m01</t>
-  </si>
-  <si>
     <t>0121h03</t>
   </si>
   <si>
-    <t>m07</t>
-  </si>
-  <si>
     <t>0121h04</t>
   </si>
   <si>
@@ -927,10 +921,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,Wb0122h11,Wb0122h15,Tc0916h12,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Wb0121h13,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,TaD,Wb0122h12,Wb0121h14,Wb0121h16,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</t>
-  </si>
-  <si>
-    <t>Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h24,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,RaN,Tc0917h20,Wb0122h20,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Wb0121h05,Wb0121h24,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</t>
+    <t>Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,TaD,Wb0122h12,Tc0917h08,Tc0917h17,Tc0916h10,Tc0917h14,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10</t>
+  </si>
+  <si>
+    <t>TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h23,Wb0121h02,Wb0121h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,RaN,Tc0917h20,Wb0122h20,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,SaP,Tc0916h06,Tc0917h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1501,7 +1495,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h24,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,RaN,Tc0917h20,Wb0122h20,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Wb0121h05,Wb0121h24,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</v>
+        <v>TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h23,Wb0121h02,Wb0121h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,RaN,Tc0917h20,Wb0122h20,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,SaP,Tc0916h06,Tc0917h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1533,7 +1527,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,Wb0122h11,Wb0122h15,Tc0916h12,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Wb0121h13,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,TaD,Wb0122h12,Wb0121h14,Wb0121h16,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</v>
+        <v>Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,TaD,Wb0122h12,Tc0917h08,Tc0917h17,Tc0916h10,Tc0917h14,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -1556,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1564,7 +1558,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2146,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A0347-59A7-4144-81CA-854B135BF65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA9974F-6715-46AE-BAAF-1797FEEE18D7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2155,7 +2149,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -2203,7 +2197,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2217,10 +2211,10 @@
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -2231,10 +2225,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2242,10 +2233,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2253,10 +2241,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -2264,10 +2249,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2275,10 +2257,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2286,10 +2265,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -2297,10 +2273,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -2308,10 +2281,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -2319,10 +2289,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -2330,10 +2297,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -2341,10 +2305,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
@@ -2352,10 +2313,7 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -2363,10 +2321,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -2374,10 +2329,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
@@ -2385,10 +2337,7 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
@@ -2396,10 +2345,7 @@
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>62</v>
@@ -2407,10 +2353,7 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>62</v>
@@ -2418,10 +2361,7 @@
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
         <v>62</v>
@@ -2429,10 +2369,7 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
@@ -2440,10 +2377,7 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
@@ -2451,10 +2385,7 @@
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
@@ -2462,10 +2393,7 @@
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
         <v>62</v>
@@ -2473,10 +2401,7 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2484,10 +2409,7 @@
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -2495,10 +2417,7 @@
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
@@ -2506,10 +2425,7 @@
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
@@ -2517,10 +2433,7 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
         <v>62</v>
@@ -2528,10 +2441,7 @@
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -2539,10 +2449,7 @@
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
         <v>62</v>
@@ -2550,10 +2457,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
         <v>62</v>
@@ -2561,10 +2465,7 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
@@ -2572,10 +2473,7 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
         <v>62</v>
@@ -2583,10 +2481,7 @@
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
         <v>62</v>
@@ -2594,10 +2489,7 @@
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
         <v>62</v>
@@ -2605,10 +2497,7 @@
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
         <v>62</v>
@@ -2616,10 +2505,7 @@
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
         <v>62</v>
@@ -2627,10 +2513,7 @@
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
         <v>62</v>
@@ -2638,10 +2521,7 @@
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
         <v>62</v>
@@ -2649,10 +2529,7 @@
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
         <v>62</v>
@@ -2660,10 +2537,7 @@
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
@@ -2671,10 +2545,7 @@
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>62</v>
@@ -2682,10 +2553,7 @@
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
         <v>62</v>
@@ -2693,10 +2561,7 @@
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F49" t="s">
         <v>62</v>
@@ -2704,10 +2569,7 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -2715,10 +2577,7 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F51" t="s">
         <v>62</v>
@@ -2726,563 +2585,410 @@
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D64" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D65" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D66" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D67" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D68" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D70" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D73" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D74" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
-        <v>159</v>
-      </c>
-      <c r="E83" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
-        <v>160</v>
-      </c>
-      <c r="E84" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
-        <v>161</v>
-      </c>
-      <c r="E85" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D87" t="s">
-        <v>163</v>
-      </c>
-      <c r="E87" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D88" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D89" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D90" t="s">
-        <v>166</v>
-      </c>
-      <c r="E90" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>171</v>
-      </c>
-      <c r="E95" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D96" t="s">
-        <v>172</v>
-      </c>
-      <c r="E96" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D97" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D98" t="s">
-        <v>174</v>
-      </c>
-      <c r="E98" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D99" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D100" t="s">
         <v>47</v>
       </c>
-      <c r="E100" t="s">
-        <v>78</v>
-      </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D101" t="s">
         <v>46</v>
       </c>
-      <c r="E101" t="s">
-        <v>78</v>
-      </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D102" t="s">
         <v>55</v>
       </c>
-      <c r="E102" t="s">
-        <v>78</v>
-      </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241E74A-6563-443D-ACE3-948BF6E87D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD66DC-8DDA-45F6-ABFA-9B14BFA39CB0}">
   <dimension ref="B2:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3300,13 +3006,13 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
@@ -3314,2878 +3020,2878 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
         <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>179</v>
       </c>
       <c r="H3" t="s">
         <v>70</v>
       </c>
       <c r="I3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" t="s">
         <v>177</v>
-      </c>
-      <c r="J3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" t="s">
-        <v>179</v>
       </c>
       <c r="M3" t="s">
         <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>0.2343260000611225</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4">
         <v>9.4347970063098849E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N4">
-        <v>0.17228315054835491</v>
+        <v>0.14835493519441675</v>
       </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
         <v>181</v>
-      </c>
-      <c r="E5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" t="s">
-        <v>183</v>
       </c>
       <c r="I5">
         <v>6.1539299555074721E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N5">
-        <v>0.39361914257228309</v>
+        <v>0.17228315054835494</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>1.2803719906939717E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" t="s">
         <v>182</v>
-      </c>
-      <c r="H6" t="s">
-        <v>184</v>
       </c>
       <c r="I6">
         <v>9.0651435905611828E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>0.14835493519441673</v>
+        <v>0.39361914257228325</v>
       </c>
       <c r="O6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>0.2643989655767644</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I7">
         <v>0.1569238770863694</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7">
-        <v>0.48574277168494506</v>
+        <v>0.48574277168494528</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I8">
         <v>8.4196987190701192E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I9">
         <v>1.6590027151339549E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>0.2529128119502646</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I10">
         <v>0.23530639604895501</v>
       </c>
       <c r="J10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I11">
         <v>0.11545051085063252</v>
       </c>
       <c r="J11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12">
         <v>2.0930700908347627E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I12">
         <v>1.8708580217523859E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I13">
         <v>1.5870718785719999E-4</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I14">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I15">
         <v>2.18117004002E-4</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I16">
         <v>2.1997594578100001E-4</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I17">
         <v>2.2028679257320001E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I18">
         <v>2.2247092341530001E-4</v>
       </c>
       <c r="J18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I19">
         <v>2.2215802483480001E-4</v>
       </c>
       <c r="J19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20">
         <v>1.959196301304E-4</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I20">
         <v>1.7982471839280001E-4</v>
       </c>
       <c r="J20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <v>2.6006163680130002E-4</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I21">
         <v>2.196653915505E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22">
         <v>2.4970367350869997E-4</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I22">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <v>2.777423419197E-4</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I23">
         <v>1.4653568480090001E-4</v>
       </c>
       <c r="J23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C24">
         <v>2.9325667121810002E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I24">
         <v>1.6891587739249999E-4</v>
       </c>
       <c r="J24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>2.9062448071570001E-4</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I25">
         <v>2.1382026469169999E-4</v>
       </c>
       <c r="J25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C26">
         <v>3.2974953856750001E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I26">
         <v>2.5871313650760002E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27">
         <v>3.0890669435880002E-4</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I27">
         <v>2.9869201220079997E-4</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>2.8569899676979997E-4</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I28">
         <v>3.2899871432689998E-4</v>
       </c>
       <c r="J28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29">
         <v>2.9104776449229998E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I29">
         <v>2.8815093129159997E-4</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30">
         <v>1.9542343622960001E-4</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I30">
         <v>1.9119340269449999E-4</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I31">
         <v>8.6818847502628699E-5</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I32">
         <v>9.1411209654710201E-5</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I33">
         <v>1.003378815307E-4</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I34">
         <v>1.108081668558E-4</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I35">
         <v>1.482008471995E-4</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I36">
         <v>1.4843975233440001E-4</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I37">
         <v>1.5156892085349999E-4</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I38">
         <v>1.482008471995E-4</v>
       </c>
       <c r="J38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I39">
         <v>1.5327192659929999E-4</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I40">
         <v>1.448830423612E-4</v>
       </c>
       <c r="J40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I41">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I42">
         <v>1.2198261808129999E-4</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I43">
         <v>1.2031259988E-4</v>
       </c>
       <c r="J43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44">
         <v>1.4913833414400001E-4</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I44">
         <v>9.6341800525102497E-5</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C45">
         <v>2.351851074806E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I45">
         <v>1.205205133131E-4</v>
       </c>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C46">
         <v>2.7409211005349998E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I46">
         <v>1.0406523055139999E-4</v>
       </c>
       <c r="J46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C47">
         <v>3.1890145721779999E-4</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I47">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C48">
         <v>3.2933975666569999E-4</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I48">
         <v>1.549876412844E-4</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49">
         <v>3.1201145048089998E-4</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I49">
         <v>1.6350342687650001E-4</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C50">
         <v>2.8834603933449999E-4</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I50">
         <v>1.8978203979030001E-4</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C51">
         <v>2.8210682296550001E-4</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I51">
         <v>2.196653915505E-4</v>
       </c>
       <c r="J51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C52">
         <v>2.94702046921E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I52">
         <v>2.4211826404469999E-4</v>
       </c>
       <c r="J52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53">
         <v>2.312682135861E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I53">
         <v>2.3522913910230001E-4</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C54">
         <v>2.1377855999679999E-4</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I54">
         <v>1.7418041482329999E-4</v>
       </c>
       <c r="J54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I55">
         <v>6.7553869037638694E-5</v>
       </c>
       <c r="J55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I56">
         <v>5.9288981588486497E-5</v>
       </c>
       <c r="J56" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I57">
         <v>6.1122533496169607E-5</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I58">
         <v>1.029375016131E-4</v>
       </c>
       <c r="J58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I59">
         <v>1.176314474024E-4</v>
       </c>
       <c r="J59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I60">
         <v>1.0275034256520001E-4</v>
       </c>
       <c r="J60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61">
         <v>0.2251253911522208</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I61">
         <v>0.11172180377771442</v>
       </c>
       <c r="J61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I62">
         <v>7.2649444256446802E-2</v>
       </c>
       <c r="J62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C63">
         <v>8.7026138579921856E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I63">
         <v>1.1013510819187573E-2</v>
       </c>
       <c r="J63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I64">
         <v>1.080771040789E-4</v>
       </c>
       <c r="J64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I65">
         <v>1.3862497912890001E-4</v>
       </c>
       <c r="J65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I66">
         <v>1.7232556805820001E-4</v>
       </c>
       <c r="J66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I67">
         <v>1.7982471839280001E-4</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I68">
         <v>1.6172531101960001E-4</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I69">
         <v>1.356772195034E-4</v>
       </c>
       <c r="J69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C70">
         <v>2.0781410678112299E-5</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I70">
         <v>1.106115823359E-4</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C71">
         <v>1.169289365913E-4</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I71">
         <v>1.4324287263530001E-4</v>
       </c>
       <c r="J71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C72">
         <v>1.7621364378420001E-4</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I72">
         <v>1.971975492609E-4</v>
       </c>
       <c r="J72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C73">
         <v>2.2835855955550001E-4</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I73">
         <v>1.188638973011E-4</v>
       </c>
       <c r="J73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C74">
         <v>2.3139715649090001E-4</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I74">
         <v>1.1199256721999999E-4</v>
       </c>
       <c r="J74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C75">
         <v>2.6404739025749998E-4</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I75">
         <v>1.307844228067E-4</v>
       </c>
       <c r="J75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C76">
         <v>3.098876055668E-4</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I76">
         <v>1.096321466477E-4</v>
       </c>
       <c r="J76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C77">
         <v>2.8473698818659999E-4</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I77">
         <v>1.014465774318E-4</v>
       </c>
       <c r="J77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78">
         <v>2.555317577885E-4</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I78">
         <v>8.0460917023624407E-5</v>
       </c>
       <c r="J78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79">
         <v>2.366014541525E-4</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I79">
         <v>5.8386119324740498E-5</v>
       </c>
       <c r="J79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C80">
         <v>1.703666568797E-4</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I80">
         <v>5.4989528598883298E-5</v>
       </c>
       <c r="J80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81">
         <v>2.006547376409E-4</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I81">
         <v>4.4622655580946802E-5</v>
       </c>
       <c r="J81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C82">
         <v>1.506525694086E-4</v>
       </c>
       <c r="D82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I82">
         <v>3.8297085420268497E-5</v>
       </c>
       <c r="J82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I83">
         <v>2.80443108319073E-5</v>
       </c>
       <c r="J83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I84">
         <v>3.8394040020930301E-5</v>
       </c>
       <c r="J84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I85">
         <v>6.1254928829620307E-5</v>
       </c>
       <c r="J85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I86">
         <v>6.8834702148171798E-5</v>
       </c>
       <c r="J86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I87">
         <v>1.108081668558E-4</v>
       </c>
       <c r="J87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I88">
         <v>2.2215802483480001E-4</v>
       </c>
       <c r="J88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I89">
         <v>1.858672108083E-4</v>
       </c>
       <c r="J89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I90">
         <v>1.34107416092E-4</v>
       </c>
       <c r="J90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I91">
         <v>1.188638973011E-4</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I92">
         <v>1.1804131270480001E-4</v>
       </c>
       <c r="J92" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I93">
         <v>1.053912886357E-4</v>
       </c>
       <c r="J93" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C94">
         <v>3.0843007817656403E-5</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I94">
         <v>9.6521096633969496E-5</v>
       </c>
       <c r="J94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C95">
         <v>1.5571239700929999E-4</v>
       </c>
       <c r="D95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I95">
         <v>1.5820784730780001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C96">
         <v>2.065375045138E-4</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I96">
         <v>1.6375850237949999E-4</v>
       </c>
       <c r="J96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C97">
         <v>2.5308521806529998E-4</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I97">
         <v>9.5448649866951402E-5</v>
       </c>
       <c r="J97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C98">
         <v>2.939108370547E-4</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I98">
         <v>5.4866325817414098E-5</v>
       </c>
       <c r="J98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C99">
         <v>2.8276841483319999E-4</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I99">
         <v>3.7051491298023797E-5</v>
       </c>
       <c r="J99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100">
         <v>2.9795869913520001E-4</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I100">
         <v>4.1074067890073697E-5</v>
       </c>
       <c r="J100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C101">
         <v>2.6961758872760003E-4</v>
       </c>
       <c r="D101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I101">
         <v>2.9729742675774001E-5</v>
       </c>
       <c r="J101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C102">
         <v>2.447653627817E-4</v>
       </c>
       <c r="D102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I102">
         <v>2.5897857979090199E-5</v>
       </c>
       <c r="J102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C103">
         <v>2.3286481028730001E-4</v>
       </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I103">
         <v>2.50125391076427E-5</v>
       </c>
       <c r="J103" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C104">
         <v>1.0292276671379999E-4</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I104">
         <v>2.4939687097836201E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C105">
         <v>1.154828857947E-4</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I105">
         <v>2.9241490314450699E-5</v>
       </c>
       <c r="J105" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C106">
         <v>1.211421966388E-4</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I106">
         <v>2.9160638313348499E-5</v>
       </c>
       <c r="J106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I107">
         <v>4.4730007553216001E-5</v>
       </c>
       <c r="J107" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E108" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I108">
         <v>6.2993503544958495E-5</v>
       </c>
       <c r="J108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K108" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E109" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I109">
         <v>7.9039193157295294E-5</v>
       </c>
       <c r="J109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K109" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I110">
         <v>7.1738744902136105E-5</v>
       </c>
       <c r="J110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I111">
         <v>7.1738744902136105E-5</v>
       </c>
       <c r="J111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6194,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14472598-DA13-4F58-9B8A-FC7C06E5F12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9315249A-628B-4410-A1D0-BE7944357638}">
   <dimension ref="B2:O211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6203,45 +5909,45 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -6252,16 +5958,16 @@
         <v>0.1883777937995674</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J4">
         <v>0.15698113307482336</v>
@@ -6270,7 +5976,7 @@
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O4">
         <v>0.13363419092319107</v>
@@ -6284,16 +5990,16 @@
         <v>3.3485319344653562E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J5">
         <v>6.3800399400598298E-2</v>
@@ -6302,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O5">
         <v>0.17004374800125466</v>
@@ -6316,16 +6022,16 @@
         <v>3.0191681376326978E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J6">
         <v>2.416408338836783E-2</v>
@@ -6334,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O6">
         <v>6.9415004962052107E-2</v>
@@ -6348,16 +6054,16 @@
         <v>0.1883777937995674</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J7">
         <v>0.17549524994275525</v>
@@ -6366,7 +6072,7 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O7">
         <v>0.16523765102001819</v>
@@ -6380,16 +6086,16 @@
         <v>3.3485319344653562E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J8">
         <v>6.9988989435793195E-2</v>
@@ -6398,7 +6104,7 @@
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O8">
         <v>0.1787354398365828</v>
@@ -6412,16 +6118,16 @@
         <v>3.0191681376326978E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J9">
         <v>2.742697811404228E-2</v>
@@ -6430,7 +6136,7 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O9">
         <v>9.3246527435216997E-2</v>
@@ -6444,16 +6150,16 @@
         <v>0.18223503965392934</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J10">
         <v>0.15023271662690602</v>
@@ -6462,7 +6168,7 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O10">
         <v>0.13937816468974629</v>
@@ -6476,16 +6182,16 @@
         <v>3.2393406757327908E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J11">
         <v>6.0066814075893288E-2</v>
@@ -6494,7 +6200,7 @@
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O11">
         <v>0.1614476395684139</v>
@@ -6508,16 +6214,16 @@
         <v>2.9207170027098918E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J12">
         <v>2.2888608999232854E-2</v>
@@ -6526,7 +6232,7 @@
         <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O12">
         <v>4.7685987075025915E-2</v>
@@ -6540,16 +6246,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J13">
         <v>7.1881595074280337E-5</v>
@@ -6558,7 +6264,7 @@
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6572,16 +6278,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J14">
         <v>7.1881595074280337E-5</v>
@@ -6590,7 +6296,7 @@
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6604,16 +6310,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J15">
         <v>7.3867990126430215E-5</v>
@@ -6622,7 +6328,7 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6636,16 +6342,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J16">
         <v>8.6945594025994493E-5</v>
@@ -6654,7 +6360,7 @@
         <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6668,16 +6374,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J17">
         <v>9.7324357231604343E-5</v>
@@ -6686,7 +6392,7 @@
         <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6700,16 +6406,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J18">
         <v>1.1877621625983699E-4</v>
@@ -6718,7 +6424,7 @@
         <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6732,16 +6438,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J19">
         <v>1.3397908173495368E-4</v>
@@ -6750,7 +6456,7 @@
         <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -6764,16 +6470,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J20">
         <v>1.3921978357466825E-4</v>
@@ -6782,7 +6488,7 @@
         <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -6796,16 +6502,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J21">
         <v>1.397873250181397E-4</v>
@@ -6814,7 +6520,7 @@
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6828,16 +6534,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J22">
         <v>1.4109146280313778E-4</v>
@@ -6846,7 +6552,7 @@
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -6860,16 +6566,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J23">
         <v>1.4099486000424907E-4</v>
@@ -6878,7 +6584,7 @@
         <v>14</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6892,16 +6598,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J24">
         <v>1.4097070930452684E-4</v>
@@ -6910,7 +6616,7 @@
         <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -6924,16 +6630,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J25">
         <v>1.405118460098053E-4</v>
@@ -6942,7 +6648,7 @@
         <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -6956,16 +6662,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J26">
         <v>1.4017373621369466E-4</v>
@@ -6974,7 +6680,7 @@
         <v>14</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -6988,16 +6694,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J27">
         <v>1.3877903330473837E-4</v>
@@ -7006,7 +6712,7 @@
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -7020,16 +6726,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J28">
         <v>1.4099486000424905E-4</v>
@@ -7038,7 +6744,7 @@
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -7052,16 +6758,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J29">
         <v>1.4099486000424907E-4</v>
@@ -7070,7 +6776,7 @@
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -7084,16 +6790,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J30">
         <v>1.4217824429063619E-4</v>
@@ -7102,7 +6808,7 @@
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -7116,16 +6822,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J31">
         <v>1.3903261565182136E-4</v>
@@ -7134,7 +6840,7 @@
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -7148,16 +6854,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J32">
         <v>1.2975874695850156E-4</v>
@@ -7166,7 +6872,7 @@
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -7180,16 +6886,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J33">
         <v>1.1852263391275404E-4</v>
@@ -7198,7 +6904,7 @@
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -7212,16 +6918,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J34">
         <v>9.2711573584666648E-5</v>
@@ -7230,7 +6936,7 @@
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -7244,16 +6950,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J35">
         <v>8.1849796384613022E-5</v>
@@ -7262,7 +6968,7 @@
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -7276,16 +6982,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J36">
         <v>7.188159507428035E-5</v>
@@ -7294,7 +7000,7 @@
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -7308,16 +7014,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J37">
         <v>7.188159507428035E-5</v>
@@ -7326,7 +7032,7 @@
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -7340,16 +7046,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J38">
         <v>7.3867990126430243E-5</v>
@@ -7358,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -7372,16 +7078,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J39">
         <v>8.694559402599452E-5</v>
@@ -7390,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -7404,16 +7110,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J40">
         <v>9.732435723160437E-5</v>
@@ -7422,7 +7128,7 @@
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -7436,16 +7142,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J41">
         <v>1.1877621625983699E-4</v>
@@ -7454,7 +7160,7 @@
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7468,16 +7174,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J42">
         <v>1.3397908173495368E-4</v>
@@ -7486,7 +7192,7 @@
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -7500,16 +7206,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J43">
         <v>1.3921978357466828E-4</v>
@@ -7518,7 +7224,7 @@
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -7532,16 +7238,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J44">
         <v>1.4007109573987539E-4</v>
@@ -7550,7 +7256,7 @@
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -7564,16 +7270,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J45">
         <v>1.4159862749730373E-4</v>
@@ -7582,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -7596,16 +7302,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J46">
         <v>1.4121825397667929E-4</v>
@@ -7614,7 +7320,7 @@
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -7628,16 +7334,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J47">
         <v>1.4030052738723615E-4</v>
@@ -7646,7 +7352,7 @@
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -7660,16 +7366,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J48">
         <v>1.4074731533209666E-4</v>
@@ -7678,7 +7384,7 @@
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -7692,16 +7398,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J49">
         <v>1.4074731533209666E-4</v>
@@ -7710,7 +7416,7 @@
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -7724,16 +7430,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J50">
         <v>1.3921978357466831E-4</v>
@@ -7742,7 +7448,7 @@
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -7756,16 +7462,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J51">
         <v>1.4099486000424907E-4</v>
@@ -7774,7 +7480,7 @@
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -7788,16 +7494,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J52">
         <v>1.4099486000424907E-4</v>
@@ -7806,7 +7512,7 @@
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -7820,16 +7526,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J53">
         <v>1.4217824429063622E-4</v>
@@ -7838,7 +7544,7 @@
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -7852,16 +7558,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J54">
         <v>1.3903261565182136E-4</v>
@@ -7870,7 +7576,7 @@
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -7884,16 +7590,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J55">
         <v>1.2975874695850156E-4</v>
@@ -7902,7 +7608,7 @@
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7916,16 +7622,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J56">
         <v>1.1852263391275404E-4</v>
@@ -7934,7 +7640,7 @@
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7948,16 +7654,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J57">
         <v>9.2711573584666662E-5</v>
@@ -7966,7 +7672,7 @@
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7980,16 +7686,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J58">
         <v>8.1849796384613049E-5</v>
@@ -7998,7 +7704,7 @@
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -8012,16 +7718,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" t="s">
+        <v>295</v>
+      </c>
+      <c r="I59" t="s">
         <v>237</v>
-      </c>
-      <c r="E59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H59" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" t="s">
-        <v>239</v>
       </c>
       <c r="J59">
         <v>0.15299359278847693</v>
@@ -8030,7 +7736,7 @@
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O59">
         <v>0.15169955718528128</v>
@@ -8044,16 +7750,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+      <c r="H60" t="s">
+        <v>295</v>
+      </c>
+      <c r="I60" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" t="s">
-        <v>293</v>
-      </c>
-      <c r="H60" t="s">
-        <v>297</v>
-      </c>
-      <c r="I60" t="s">
-        <v>240</v>
       </c>
       <c r="J60">
         <v>6.2157537746890437E-2</v>
@@ -8062,7 +7768,7 @@
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O60">
         <v>0.15537768469394608</v>
@@ -8076,16 +7782,16 @@
         <v>0.18018745493871671</v>
       </c>
       <c r="D61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H61" t="s">
+        <v>295</v>
+      </c>
+      <c r="I61" t="s">
         <v>239</v>
-      </c>
-      <c r="E61" t="s">
-        <v>293</v>
-      </c>
-      <c r="H61" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" t="s">
-        <v>241</v>
       </c>
       <c r="J61">
         <v>2.2640971651549598E-2</v>
@@ -8094,7 +7800,7 @@
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O61">
         <v>4.9807352721212395E-2</v>
@@ -8108,16 +7814,16 @@
         <v>3.2029435894886021E-2</v>
       </c>
       <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="H62" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" t="s">
         <v>240</v>
-      </c>
-      <c r="E62" t="s">
-        <v>293</v>
-      </c>
-      <c r="H62" t="s">
-        <v>297</v>
-      </c>
-      <c r="I62" t="s">
-        <v>242</v>
       </c>
       <c r="J62">
         <v>7.5998792030174098E-5</v>
@@ -8126,7 +7832,7 @@
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -8140,16 +7846,16 @@
         <v>2.8878999577356238E-2</v>
       </c>
       <c r="D63" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="H63" t="s">
+        <v>295</v>
+      </c>
+      <c r="I63" t="s">
         <v>241</v>
-      </c>
-      <c r="E63" t="s">
-        <v>293</v>
-      </c>
-      <c r="H63" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" t="s">
-        <v>243</v>
       </c>
       <c r="J63">
         <v>7.5998792030174098E-5</v>
@@ -8158,7 +7864,7 @@
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -8172,16 +7878,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" t="s">
         <v>242</v>
-      </c>
-      <c r="E64" t="s">
-        <v>293</v>
-      </c>
-      <c r="H64" t="s">
-        <v>297</v>
-      </c>
-      <c r="I64" t="s">
-        <v>244</v>
       </c>
       <c r="J64">
         <v>8.124553154481924E-5</v>
@@ -8190,7 +7896,7 @@
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -8204,16 +7910,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" t="s">
+        <v>295</v>
+      </c>
+      <c r="I65" t="s">
         <v>243</v>
-      </c>
-      <c r="E65" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" t="s">
-        <v>297</v>
-      </c>
-      <c r="I65" t="s">
-        <v>245</v>
       </c>
       <c r="J65">
         <v>9.0151102067375708E-5</v>
@@ -8222,7 +7928,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -8236,16 +7942,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66" t="s">
+        <v>295</v>
+      </c>
+      <c r="I66" t="s">
         <v>244</v>
-      </c>
-      <c r="E66" t="s">
-        <v>293</v>
-      </c>
-      <c r="H66" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" t="s">
-        <v>246</v>
       </c>
       <c r="J66">
         <v>1.0075929692034636E-4</v>
@@ -8254,7 +7960,7 @@
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -8268,16 +7974,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>291</v>
+      </c>
+      <c r="H67" t="s">
+        <v>295</v>
+      </c>
+      <c r="I67" t="s">
         <v>245</v>
-      </c>
-      <c r="E67" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67" t="s">
-        <v>297</v>
-      </c>
-      <c r="I67" t="s">
-        <v>247</v>
       </c>
       <c r="J67">
         <v>1.2034551439504003E-4</v>
@@ -8286,7 +7992,7 @@
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -8300,16 +8006,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D68" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68" t="s">
+        <v>295</v>
+      </c>
+      <c r="I68" t="s">
         <v>246</v>
-      </c>
-      <c r="E68" t="s">
-        <v>293</v>
-      </c>
-      <c r="H68" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" t="s">
-        <v>248</v>
       </c>
       <c r="J68">
         <v>1.3491442400244936E-4</v>
@@ -8318,7 +8024,7 @@
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8332,16 +8038,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" t="s">
+        <v>295</v>
+      </c>
+      <c r="I69" t="s">
         <v>247</v>
-      </c>
-      <c r="E69" t="s">
-        <v>293</v>
-      </c>
-      <c r="H69" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" t="s">
-        <v>249</v>
       </c>
       <c r="J69">
         <v>1.3844646383681921E-4</v>
@@ -8350,7 +8056,7 @@
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8364,16 +8070,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" t="s">
+        <v>295</v>
+      </c>
+      <c r="I70" t="s">
         <v>248</v>
-      </c>
-      <c r="E70" t="s">
-        <v>293</v>
-      </c>
-      <c r="H70" t="s">
-        <v>297</v>
-      </c>
-      <c r="I70" t="s">
-        <v>250</v>
       </c>
       <c r="J70">
         <v>1.4427885781972738E-4</v>
@@ -8382,7 +8088,7 @@
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -8396,16 +8102,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71" t="s">
+        <v>295</v>
+      </c>
+      <c r="I71" t="s">
         <v>249</v>
-      </c>
-      <c r="E71" t="s">
-        <v>293</v>
-      </c>
-      <c r="H71" t="s">
-        <v>297</v>
-      </c>
-      <c r="I71" t="s">
-        <v>251</v>
       </c>
       <c r="J71">
         <v>1.4671807849166824E-4</v>
@@ -8414,7 +8120,7 @@
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -8428,16 +8134,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" t="s">
+        <v>291</v>
+      </c>
+      <c r="H72" t="s">
+        <v>295</v>
+      </c>
+      <c r="I72" t="s">
         <v>250</v>
-      </c>
-      <c r="E72" t="s">
-        <v>293</v>
-      </c>
-      <c r="H72" t="s">
-        <v>297</v>
-      </c>
-      <c r="I72" t="s">
-        <v>252</v>
       </c>
       <c r="J72">
         <v>1.4662147569277951E-4</v>
@@ -8446,7 +8152,7 @@
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -8460,16 +8166,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D73" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" t="s">
+        <v>295</v>
+      </c>
+      <c r="I73" t="s">
         <v>251</v>
-      </c>
-      <c r="E73" t="s">
-        <v>293</v>
-      </c>
-      <c r="H73" t="s">
-        <v>297</v>
-      </c>
-      <c r="I73" t="s">
-        <v>253</v>
       </c>
       <c r="J73">
         <v>1.4662147569277951E-4</v>
@@ -8478,7 +8184,7 @@
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -8492,16 +8198,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" t="s">
+        <v>295</v>
+      </c>
+      <c r="I74" t="s">
         <v>252</v>
-      </c>
-      <c r="E74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" t="s">
-        <v>297</v>
-      </c>
-      <c r="I74" t="s">
-        <v>254</v>
       </c>
       <c r="J74">
         <v>1.449430020620875E-4</v>
@@ -8510,7 +8216,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -8524,16 +8230,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+      <c r="H75" t="s">
+        <v>295</v>
+      </c>
+      <c r="I75" t="s">
         <v>253</v>
-      </c>
-      <c r="E75" t="s">
-        <v>293</v>
-      </c>
-      <c r="H75" t="s">
-        <v>297</v>
-      </c>
-      <c r="I75" t="s">
-        <v>255</v>
       </c>
       <c r="J75">
         <v>1.4325245308153441E-4</v>
@@ -8542,7 +8248,7 @@
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8556,16 +8262,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D76" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" t="s">
+        <v>295</v>
+      </c>
+      <c r="I76" t="s">
         <v>254</v>
-      </c>
-      <c r="E76" t="s">
-        <v>293</v>
-      </c>
-      <c r="H76" t="s">
-        <v>297</v>
-      </c>
-      <c r="I76" t="s">
-        <v>256</v>
       </c>
       <c r="J76">
         <v>1.3786080936855618E-4</v>
@@ -8574,7 +8280,7 @@
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -8588,16 +8294,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" t="s">
+        <v>295</v>
+      </c>
+      <c r="I77" t="s">
         <v>255</v>
-      </c>
-      <c r="E77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H77" t="s">
-        <v>297</v>
-      </c>
-      <c r="I77" t="s">
-        <v>257</v>
       </c>
       <c r="J77">
         <v>1.4007663606806683E-4</v>
@@ -8606,7 +8312,7 @@
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -8620,16 +8326,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" t="s">
+        <v>291</v>
+      </c>
+      <c r="H78" t="s">
+        <v>295</v>
+      </c>
+      <c r="I78" t="s">
         <v>256</v>
-      </c>
-      <c r="E78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H78" t="s">
-        <v>297</v>
-      </c>
-      <c r="I78" t="s">
-        <v>258</v>
       </c>
       <c r="J78">
         <v>1.4043285888896907E-4</v>
@@ -8638,7 +8344,7 @@
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -8652,16 +8358,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" t="s">
+        <v>295</v>
+      </c>
+      <c r="I79" t="s">
         <v>257</v>
-      </c>
-      <c r="E79" t="s">
-        <v>293</v>
-      </c>
-      <c r="H79" t="s">
-        <v>297</v>
-      </c>
-      <c r="I79" t="s">
-        <v>259</v>
       </c>
       <c r="J79">
         <v>1.4161624317535627E-4</v>
@@ -8670,7 +8376,7 @@
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -8684,16 +8390,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" t="s">
+        <v>291</v>
+      </c>
+      <c r="H80" t="s">
+        <v>295</v>
+      </c>
+      <c r="I80" t="s">
         <v>258</v>
-      </c>
-      <c r="E80" t="s">
-        <v>293</v>
-      </c>
-      <c r="H80" t="s">
-        <v>297</v>
-      </c>
-      <c r="I80" t="s">
-        <v>260</v>
       </c>
       <c r="J80">
         <v>1.3781250796911183E-4</v>
@@ -8702,7 +8408,7 @@
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8716,16 +8422,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D81" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81" t="s">
+        <v>291</v>
+      </c>
+      <c r="H81" t="s">
+        <v>295</v>
+      </c>
+      <c r="I81" t="s">
         <v>259</v>
-      </c>
-      <c r="E81" t="s">
-        <v>293</v>
-      </c>
-      <c r="H81" t="s">
-        <v>297</v>
-      </c>
-      <c r="I81" t="s">
-        <v>261</v>
       </c>
       <c r="J81">
         <v>1.2672733679662798E-4</v>
@@ -8734,7 +8440,7 @@
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8748,16 +8454,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" t="s">
+        <v>295</v>
+      </c>
+      <c r="I82" t="s">
         <v>260</v>
-      </c>
-      <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="H82" t="s">
-        <v>297</v>
-      </c>
-      <c r="I82" t="s">
-        <v>262</v>
       </c>
       <c r="J82">
         <v>1.1780969092421039E-4</v>
@@ -8766,7 +8472,7 @@
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -8780,16 +8486,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D83" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" t="s">
+        <v>291</v>
+      </c>
+      <c r="H83" t="s">
+        <v>295</v>
+      </c>
+      <c r="I83" t="s">
         <v>261</v>
-      </c>
-      <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" t="s">
-        <v>297</v>
-      </c>
-      <c r="I83" t="s">
-        <v>263</v>
       </c>
       <c r="J83">
         <v>9.5198598309312798E-5</v>
@@ -8798,7 +8504,7 @@
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -8812,16 +8518,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D84" t="s">
+        <v>260</v>
+      </c>
+      <c r="E84" t="s">
+        <v>291</v>
+      </c>
+      <c r="H84" t="s">
+        <v>295</v>
+      </c>
+      <c r="I84" t="s">
         <v>262</v>
-      </c>
-      <c r="E84" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" t="s">
-        <v>297</v>
-      </c>
-      <c r="I84" t="s">
-        <v>264</v>
       </c>
       <c r="J84">
         <v>8.361230011759359E-5</v>
@@ -8830,7 +8536,7 @@
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -8844,16 +8550,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J85">
         <v>7.3994283953232587E-5</v>
@@ -8862,7 +8568,7 @@
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -8876,16 +8582,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J86">
         <v>7.3318064361011344E-5</v>
@@ -8894,7 +8600,7 @@
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -8908,16 +8614,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H87" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J87">
         <v>7.8806310872878333E-5</v>
@@ -8926,7 +8632,7 @@
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -8940,16 +8646,16 @@
         <v>2.1546544680075254E-5</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J88">
         <v>8.7717919070365373E-5</v>
@@ -8958,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -8972,16 +8678,16 @@
         <v>1.4916838624667481E-5</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J89">
         <v>1.0008911500305567E-4</v>
@@ -8990,7 +8696,7 @@
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -9004,16 +8710,16 @@
         <v>1.6574265138519424E-5</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J90">
         <v>1.2037570276969279E-4</v>
@@ -9022,7 +8728,7 @@
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -9036,16 +8742,16 @@
         <v>1.4585353321897093E-5</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J91">
         <v>1.3491442400244931E-4</v>
@@ -9054,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -9068,16 +8774,16 @@
         <v>2.1215059377304864E-5</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H92" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J92">
         <v>1.3886910108195749E-4</v>
@@ -9086,7 +8792,7 @@
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -9100,16 +8806,16 @@
         <v>5.7678442682047593E-5</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J93">
         <v>1.4450828946708814E-4</v>
@@ -9118,7 +8824,7 @@
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -9132,16 +8838,16 @@
         <v>1.6905750441289813E-4</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H94" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J94">
         <v>1.5379423351026905E-4</v>
@@ -9150,7 +8856,7 @@
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -9164,16 +8870,16 @@
         <v>1.9060404909297337E-4</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H95" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J95">
         <v>1.5085992349402332E-4</v>
@@ -9182,7 +8888,7 @@
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -9196,16 +8902,16 @@
         <v>1.4585353321897094E-4</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H96" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J96">
         <v>1.5085992349402332E-4</v>
@@ -9214,7 +8920,7 @@
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -9228,16 +8934,16 @@
         <v>1.4452759200788939E-4</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H97" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J97">
         <v>1.4918144986333134E-4</v>
@@ -9246,7 +8952,7 @@
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -9260,16 +8966,16 @@
         <v>1.408812536774151E-4</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H98" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J98">
         <v>1.4589091702618337E-4</v>
@@ -9278,7 +8984,7 @@
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -9292,16 +8998,16 @@
         <v>1.4054976837464471E-4</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J99">
         <v>1.3838608708751374E-4</v>
@@ -9310,7 +9016,7 @@
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -9324,16 +9030,16 @@
         <v>1.4253868019126702E-4</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H100" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J100">
         <v>1.4060191378702439E-4</v>
@@ -9342,7 +9048,7 @@
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -9356,16 +9062,16 @@
         <v>1.4883690094390442E-4</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H101" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J101">
         <v>1.4043285888896907E-4</v>
@@ -9374,7 +9080,7 @@
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -9388,16 +9094,16 @@
         <v>1.5049432745775637E-4</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J102">
         <v>1.4161624317535627E-4</v>
@@ -9406,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -9420,16 +9126,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H103" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J103">
         <v>1.3781250796911183E-4</v>
@@ -9438,7 +9144,7 @@
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -9452,16 +9158,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H104" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J104">
         <v>1.2699903216850257E-4</v>
@@ -9470,7 +9176,7 @@
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -9484,16 +9190,16 @@
         <v>2.2209515285616027E-4</v>
       </c>
       <c r="D105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H105" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J105">
         <v>1.1780969092421039E-4</v>
@@ -9502,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -9516,16 +9222,16 @@
         <v>1.7237235744060203E-4</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H106" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J106">
         <v>9.4981242011813114E-5</v>
@@ -9534,7 +9240,7 @@
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -9548,16 +9254,16 @@
         <v>1.5579809230208258E-4</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J107">
         <v>8.3612300117593563E-5</v>
@@ -9566,7 +9272,7 @@
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -9580,16 +9286,16 @@
         <v>1.093901499142282E-4</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J108">
         <v>0.1433449377564199</v>
@@ -9603,16 +9309,16 @@
         <v>7.9556472664893237E-5</v>
       </c>
       <c r="D109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I109" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J109">
         <v>8.6616938881018096E-2</v>
@@ -9626,16 +9332,16 @@
         <v>5.6352501470966035E-5</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I110" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J110">
         <v>2.2053706378496806E-2</v>
@@ -9649,16 +9355,16 @@
         <v>2.9833677249334962E-5</v>
       </c>
       <c r="D111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J111">
         <v>0.14356943657598828</v>
@@ -9666,10 +9372,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H112" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J112">
         <v>8.6501970578679976E-2</v>
@@ -9677,10 +9383,10 @@
     </row>
     <row r="113" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H113" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J113">
         <v>2.2108406445529302E-2</v>
@@ -9688,10 +9394,10 @@
     </row>
     <row r="114" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H114" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J114">
         <v>0.13867576211693525</v>
@@ -9699,10 +9405,10 @@
     </row>
     <row r="115" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H115" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J115">
         <v>8.3763991229191023E-2</v>
@@ -9710,10 +9416,10 @@
     </row>
     <row r="116" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J116">
         <v>2.1323833141833608E-2</v>
@@ -9721,10 +9427,10 @@
     </row>
     <row r="117" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H117" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I117" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J117">
         <v>1.1704624193942443E-4</v>
@@ -9732,10 +9438,10 @@
     </row>
     <row r="118" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H118" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J118">
         <v>1.1704624193942443E-4</v>
@@ -9743,10 +9449,10 @@
     </row>
     <row r="119" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H119" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J119">
         <v>1.1714284653105948E-4</v>
@@ -9754,10 +9460,10 @@
     </row>
     <row r="120" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J120">
         <v>1.1777885122857169E-4</v>
@@ -9765,10 +9471,10 @@
     </row>
     <row r="121" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H121" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J121">
         <v>1.1828360287909037E-4</v>
@@ -9776,10 +9482,10 @@
     </row>
     <row r="122" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H122" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J122">
         <v>1.1932687374255334E-4</v>
@@ -9787,10 +9493,10 @@
     </row>
     <row r="123" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H123" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I123" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J123">
         <v>1.2006623654418571E-4</v>
@@ -9798,10 +9504,10 @@
     </row>
     <row r="124" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H124" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J124">
         <v>1.2032110823275479E-4</v>
@@ -9809,10 +9515,10 @@
     </row>
     <row r="125" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H125" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I125" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J125">
         <v>1.203487095446505E-4</v>
@@ -9820,10 +9526,10 @@
     </row>
     <row r="126" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H126" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I126" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J126">
         <v>1.2041213383581516E-4</v>
@@ -9831,10 +9537,10 @@
     </row>
     <row r="127" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H127" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J127">
         <v>1.2040743574017333E-4</v>
@@ -9842,10 +9548,10 @@
     </row>
     <row r="128" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H128" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J128">
         <v>1.2040626121626288E-4</v>
@@ -9853,10 +9559,10 @@
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H129" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I129" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J129">
         <v>1.203839452619642E-4</v>
@@ -9864,10 +9570,10 @@
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H130" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I130" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J130">
         <v>1.2036750192721781E-4</v>
@@ -9875,10 +9581,10 @@
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H131" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I131" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J131">
         <v>1.2029967317138896E-4</v>
@@ -9886,10 +9592,10 @@
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H132" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J132">
         <v>1.2040743574017333E-4</v>
@@ -9897,10 +9603,10 @@
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H133" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J133">
         <v>1.2040743574017333E-4</v>
@@ -9908,10 +9614,10 @@
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H134" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I134" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J134">
         <v>1.2046498741178571E-4</v>
@@ -9919,10 +9625,10 @@
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H135" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J135">
         <v>1.2031200567244875E-4</v>
@@ -9930,10 +9636,10 @@
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H136" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I136" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J136">
         <v>1.1986098849083345E-4</v>
@@ -9941,10 +9647,10 @@
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H137" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I137" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J137">
         <v>1.1931454124149356E-4</v>
@@ -9952,10 +9658,10 @@
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H138" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I138" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J138">
         <v>1.1805926881219316E-4</v>
@@ -9963,10 +9669,10 @@
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H139" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J139">
         <v>1.1753102668346536E-4</v>
@@ -9974,10 +9680,10 @@
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H140" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I140" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J140">
         <v>1.1704624193942442E-4</v>
@@ -9985,10 +9691,10 @@
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H141" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J141">
         <v>1.1704624193942442E-4</v>
@@ -9996,10 +9702,10 @@
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H142" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I142" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J142">
         <v>1.1714284653105945E-4</v>
@@ -10007,10 +9713,10 @@
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H143" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I143" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J143">
         <v>1.1777885122857166E-4</v>
@@ -10018,10 +9724,10 @@
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I144" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J144">
         <v>1.1828360287909035E-4</v>
@@ -10029,10 +9735,10 @@
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H145" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J145">
         <v>1.1932687374255334E-4</v>
@@ -10040,10 +9746,10 @@
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I146" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J146">
         <v>1.2006623654418571E-4</v>
@@ -10051,10 +9757,10 @@
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I147" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J147">
         <v>1.2032110823275476E-4</v>
@@ -10062,10 +9768,10 @@
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I148" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J148">
         <v>1.2036251020059835E-4</v>
@@ -10073,10 +9779,10 @@
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I149" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J149">
         <v>1.2043679883793474E-4</v>
@@ -10084,10 +9790,10 @@
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I150" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J150">
         <v>1.2041830008634504E-4</v>
@@ -10095,10 +9801,10 @@
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I151" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J151">
         <v>1.203736681777477E-4</v>
@@ -10106,10 +9812,10 @@
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I152" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J152">
         <v>1.2039539687009114E-4</v>
@@ -10117,10 +9823,10 @@
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I153" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J153">
         <v>1.2039539687009114E-4</v>
@@ -10128,10 +9834,10 @@
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I154" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J154">
         <v>1.2032110823275476E-4</v>
@@ -10139,10 +9845,10 @@
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I155" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J155">
         <v>1.2040743574017331E-4</v>
@@ -10150,10 +9856,10 @@
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I156" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J156">
         <v>1.2040743574017331E-4</v>
@@ -10161,10 +9867,10 @@
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I157" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J157">
         <v>1.2046498741178569E-4</v>
@@ -10172,10 +9878,10 @@
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I158" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J158">
         <v>1.2031200567244873E-4</v>
@@ -10183,10 +9889,10 @@
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H159" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I159" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J159">
         <v>1.1986098849083342E-4</v>
@@ -10194,10 +9900,10 @@
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H160" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I160" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J160">
         <v>1.1931454124149355E-4</v>
@@ -10205,10 +9911,10 @@
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H161" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I161" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J161">
         <v>1.1805926881219316E-4</v>
@@ -10216,10 +9922,10 @@
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H162" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I162" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J162">
         <v>1.1753102668346533E-4</v>
@@ -10227,10 +9933,10 @@
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H163" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I163" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J163">
         <v>0.13715570565395938</v>
@@ -10238,10 +9944,10 @@
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H164" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I164" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J164">
         <v>8.2847622577426325E-2</v>
@@ -10249,10 +9955,10 @@
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H165" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I165" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J165">
         <v>2.1057277997205793E-2</v>
@@ -10260,10 +9966,10 @@
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H166" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I166" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J166">
         <v>1.1704831228645575E-4</v>
@@ -10271,10 +9977,10 @@
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H167" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I167" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J167">
         <v>1.1704831228645575E-4</v>
@@ -10282,10 +9988,10 @@
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H168" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I168" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J168">
         <v>1.1730347760600242E-4</v>
@@ -10293,10 +9999,10 @@
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H169" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I169" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J169">
         <v>1.1773658329798325E-4</v>
@@ -10304,10 +10010,10 @@
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H170" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I170" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J170">
         <v>1.1825249292565127E-4</v>
@@ -10315,10 +10021,10 @@
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H171" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J171">
         <v>1.1920503181703149E-4</v>
@@ -10326,10 +10032,10 @@
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H172" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I172" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J172">
         <v>1.1991356336601438E-4</v>
@@ -10337,10 +10043,10 @@
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H173" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I173" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J173">
         <v>1.2008533748791865E-4</v>
@@ -10348,10 +10054,10 @@
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H174" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I174" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J174">
         <v>1.2036898501229388E-4</v>
@@ -10359,10 +10065,10 @@
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H175" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I175" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J175">
         <v>1.2048761192724999E-4</v>
@@ -10370,10 +10076,10 @@
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H176" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J176">
         <v>1.2048291383160818E-4</v>
@@ -10381,10 +10087,10 @@
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H177" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I177" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J177">
         <v>1.2048291383160818E-4</v>
@@ -10392,10 +10098,10 @@
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H178" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I178" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J178">
         <v>1.2040128441983145E-4</v>
@@ -10403,10 +10109,10 @@
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H179" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I179" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J179">
         <v>1.203190677460995E-4</v>
@@ -10414,10 +10120,10 @@
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H180" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J180">
         <v>1.2005685528309007E-4</v>
@@ -10425,10 +10131,10 @@
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H181" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I181" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J181">
         <v>1.2016461785187446E-4</v>
@@ -10436,10 +10142,10 @@
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H182" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I182" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J182">
         <v>1.201819420795537E-4</v>
@@ -10447,10 +10153,10 @@
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H183" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I183" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J183">
         <v>1.2023949375116605E-4</v>
@@ -10458,10 +10164,10 @@
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H184" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I184" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J184">
         <v>1.2005450623526916E-4</v>
@@ -10469,10 +10175,10 @@
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H185" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I185" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J185">
         <v>1.1951539976036962E-4</v>
@@ -10480,10 +10186,10 @@
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H186" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I186" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J186">
         <v>1.1908170680643357E-4</v>
@@ -10491,10 +10197,10 @@
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H187" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I187" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J187">
         <v>1.1798205879526866E-4</v>
@@ -10502,10 +10208,10 @@
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H188" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I188" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J188">
         <v>1.1741858094922714E-4</v>
@@ -10513,10 +10219,10 @@
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H189" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I189" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J189">
         <v>1.1695082680188786E-4</v>
@@ -10524,10 +10230,10 @@
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H190" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I190" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J190">
         <v>1.1691794013239506E-4</v>
@@ -10535,10 +10241,10 @@
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H191" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J191">
         <v>1.1718485069104631E-4</v>
@@ -10546,10 +10252,10 @@
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H192" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J192">
         <v>1.1761825001400475E-4</v>
@@ -10557,10 +10263,10 @@
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H193" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I193" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J193">
         <v>1.1821989988713611E-4</v>
@@ -10568,10 +10274,10 @@
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H194" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I194" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J194">
         <v>1.1920649997191956E-4</v>
@@ -10579,10 +10285,10 @@
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H195" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I195" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J195">
         <v>1.1991356336601439E-4</v>
@@ -10590,10 +10296,10 @@
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H196" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I196" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J196">
         <v>1.2010589165635163E-4</v>
@@ -10601,10 +10307,10 @@
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H197" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I197" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J197">
         <v>1.2038014298944324E-4</v>
@@ -10612,10 +10318,10 @@
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H198" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I198" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J198">
         <v>1.2083174743301377E-4</v>
@@ -10623,10 +10329,10 @@
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H199" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J199">
         <v>1.206890427778933E-4</v>
@@ -10634,10 +10340,10 @@
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H200" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I200" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J200">
         <v>1.206890427778933E-4</v>
@@ -10645,10 +10351,10 @@
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H201" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I201" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J201">
         <v>1.2060741336611656E-4</v>
@@ -10656,10 +10362,10 @@
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H202" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I202" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J202">
         <v>1.2044738448331686E-4</v>
@@ -10667,10 +10373,10 @@
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H203" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I203" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J203">
         <v>1.2008240117814251E-4</v>
@@ -10678,10 +10384,10 @@
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H204" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I204" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J204">
         <v>1.2019016374692689E-4</v>
@@ -10689,10 +10395,10 @@
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H205" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I205" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J205">
         <v>1.201819420795537E-4</v>
@@ -10700,10 +10406,10 @@
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I206" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J206">
         <v>1.2023949375116605E-4</v>
@@ -10711,10 +10417,10 @@
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H207" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I207" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J207">
         <v>1.2005450623526916E-4</v>
@@ -10722,10 +10428,10 @@
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H208" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I208" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J208">
         <v>1.1952861315436227E-4</v>
@@ -10733,10 +10439,10 @@
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H209" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I209" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J209">
         <v>1.1908170680643357E-4</v>
@@ -10744,10 +10450,10 @@
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H210" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I210" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J210">
         <v>1.1797148808007455E-4</v>
@@ -10755,10 +10461,10 @@
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H211" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I211" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J211">
         <v>1.1741858094922717E-4</v>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A3ECC-C1F2-4870-9439-8814029DFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50F967-CF17-47E7-A62E-44EF4E8372E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -921,10 +921,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,TaD,Wb0122h12,Tc0917h08,Tc0917h17,Tc0916h10,Tc0917h14,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10</t>
-  </si>
-  <si>
-    <t>TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h23,Wb0121h02,Wb0121h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,RaN,Tc0917h20,Wb0122h20,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,SaP,Tc0916h06,Tc0917h01</t>
+    <t>Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,RaD,Wb0122h11,Wb0122h15,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Wb0121h13,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,Tc0916h10,Tc0917h14,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,TaD,Wb0122h12,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</t>
+  </si>
+  <si>
+    <t>Tc0916h04,SaP,Tc0916h06,Tc0917h01,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,RaN,Tc0917h20,Wb0122h20,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0917h23,Wb0121h02,Wb0121h06,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,RaN,Tc0917h20,Wb0122h20,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,Tc0916h04,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,SaP,Tc0916h06,Tc0917h01</v>
+        <v>Tc0916h04,SaP,Tc0916h06,Tc0917h01,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,RaN,Tc0917h20,Wb0122h20,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,TaD,Wb0122h12,Tc0917h08,Tc0917h17,Tc0916h10,Tc0917h14,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10</v>
+        <v>Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,RaD,Wb0122h11,Wb0122h15,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Wb0121h13,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,Tc0916h10,Tc0917h14,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,TaD,Wb0122h12,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2140,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA9974F-6715-46AE-BAAF-1797FEEE18D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8B689-15C7-4DB9-9C94-ED248F7A9027}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2997,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD66DC-8DDA-45F6-ABFA-9B14BFA39CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF96D01A-9128-484A-B579-A5D488020DDC}">
   <dimension ref="B2:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3079,7 +3079,7 @@
         <v>29</v>
       </c>
       <c r="N4">
-        <v>0.14835493519441675</v>
+        <v>0.14835493519441678</v>
       </c>
       <c r="O4" t="s">
         <v>300</v>
@@ -3111,10 +3111,10 @@
         <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.17228315054835494</v>
+        <v>0.39361914257228325</v>
       </c>
       <c r="O5" t="s">
         <v>300</v>
@@ -3146,10 +3146,10 @@
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <v>0.39361914257228325</v>
+        <v>0.17228315054835494</v>
       </c>
       <c r="O6" t="s">
         <v>300</v>
@@ -5900,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9315249A-628B-4410-A1D0-BE7944357638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD9FE2-6ED9-4972-A044-0C7D08A28026}">
   <dimension ref="B2:O211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50F967-CF17-47E7-A62E-44EF4E8372E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C70C5F-E856-4CD2-A4A0-EED03AAC75BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -921,10 +921,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,RaD,Wb0122h11,Wb0122h15,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Wb0121h13,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,Tc0916h10,Tc0917h14,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,TaD,Wb0122h12,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</t>
-  </si>
-  <si>
-    <t>Tc0916h04,SaP,Tc0916h06,Tc0917h01,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,RaN,Tc0917h20,Wb0122h20,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</t>
+    <t>Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h10,Tc0917h14,Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h13,TaD,Wb0122h12,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16</t>
+  </si>
+  <si>
+    <t>Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,Wb0121h05,Wb0121h24,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,RaN,Tc0917h20,Wb0122h20,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Tc0916h04,SaP,Tc0916h06,Tc0917h01,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,TaN,Tc0916h03,Tc0916h23,Tc0917h24,Wb0121h05,Wb0121h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,RaN,Tc0917h20,Wb0122h20,Tc0917h23,Wb0121h02,Wb0121h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02</v>
+        <v>Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,Wb0121h05,Wb0121h24,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,RaN,Tc0917h20,Wb0122h20,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h11,Wb0121h09,Tc0917h11,WaD,Wb0122h08,Wb0122h18,RaD,Wb0122h11,Wb0122h15,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Wb0121h13,Tc0916h12,Tc0917h18,Wb0121h08,Wb0121h18,Wb0121h14,Wb0121h16,Tc0916h10,Tc0917h14,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,TaD,Wb0122h12,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h08,Tc0917h17</v>
+        <v>Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h10,Tc0917h14,Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h13,TaD,Wb0122h12,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2140,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8B689-15C7-4DB9-9C94-ED248F7A9027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0F34B-F75A-48F5-949E-47A3FDF0A9D4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2997,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF96D01A-9128-484A-B579-A5D488020DDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C5B2D1-E581-4800-9907-F9D0469538A5}">
   <dimension ref="B2:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3076,10 +3076,10 @@
         <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>0.14835493519441678</v>
+        <v>0.48574277168494512</v>
       </c>
       <c r="O4" t="s">
         <v>300</v>
@@ -3111,10 +3111,10 @@
         <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N5">
-        <v>0.39361914257228325</v>
+        <v>0.17228315054835491</v>
       </c>
       <c r="O5" t="s">
         <v>300</v>
@@ -3146,10 +3146,10 @@
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>0.17228315054835494</v>
+        <v>0.39361914257228309</v>
       </c>
       <c r="O6" t="s">
         <v>300</v>
@@ -3181,10 +3181,10 @@
         <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>0.48574277168494528</v>
+        <v>0.14835493519441673</v>
       </c>
       <c r="O7" t="s">
         <v>300</v>
@@ -5900,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD9FE2-6ED9-4972-A044-0C7D08A28026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9E3B5-9D47-4001-80AA-39734C802D64}">
   <dimension ref="B2:O211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/scen_tsparameters_ts_108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C70C5F-E856-4CD2-A4A0-EED03AAC75BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB0674-7D38-4623-A6BA-6D6D7F302EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="302">
   <si>
     <t>UC_N</t>
   </si>
@@ -921,10 +921,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h10,Tc0917h14,Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h13,TaD,Wb0122h12,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16</t>
-  </si>
-  <si>
-    <t>Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,Wb0121h05,Wb0121h24,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,RaN,Tc0917h20,Wb0122h20,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22</t>
+    <t>Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h14,Wb0121h16,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Tc0916h11,Wb0121h09,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0917h18,Wb0121h08,Wb0121h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,RaD,Wb0122h11,Wb0122h15,TaD,Wb0122h12</t>
+  </si>
+  <si>
+    <t>SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0917h23,Wb0121h02,Wb0121h06,TaN,Tc0916h03,Tc0916h23,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Wb0121h05,Wb0121h24,Tc0916h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,RaN,Tc0917h20,Wb0122h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,SaP,Tc0916h06,Tc0917h01,Tc0917h23,Wb0121h02,Wb0121h06,Wb0121h05,Wb0121h24,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,RaN,Tc0917h20,Wb0122h20,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,TaN,Tc0916h03,Tc0916h23,Tc0916h24,Tc0917h05,Tc0917h19,Tc0916h04,Tc0917h02,Tc0917h06,WaP,Wb0122h22</v>
+        <v>SaN,Tc0917h03,WaN,Wb0121h19,Wb0121h22,Wb0122h02,Tc0917h24,Tc0917h02,Tc0917h06,WaP,Wb0122h22,Tc0916h24,Tc0917h05,Tc0917h19,RaP,Tc0916h19,Wb0121h01,Wb0122h19,Wb0122h21,SaP,Tc0916h06,Tc0917h01,Tc0916h05,Tc0917h22,Wb0122h01,Wb0122h05,Wb0122h06,TaP,Tc0916h21,Wb0121h20,Wb0122h04,Tc0917h23,Wb0121h02,Wb0121h06,TaN,Tc0916h03,Tc0916h23,Tc0916h01,Tc0916h20,Tc0917h21,Wb0121h03,Wb0121h04,Wb0122h23,Wb0122h24,Wb0121h05,Wb0121h24,Tc0916h04,Tc0916h02,Tc0916h22,Tc0917h04,Wb0121h21,Wb0121h23,Wb0122h03,RaN,Tc0917h20,Wb0122h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0917h18,Wb0121h08,Wb0121h18,Tc0916h11,Wb0121h09,RaD,Wb0122h11,Wb0122h15,Tc0916h10,Tc0917h14,Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h13,TaD,Wb0122h12,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,Wb0121h14,Wb0121h16</v>
+        <v>Tc0917h08,Tc0917h17,Tc0916h12,Wb0121h14,Wb0121h16,Tc0917h11,WaD,Wb0122h08,Wb0122h18,Wb0121h13,Tc0916h08,Tc0916h09,Tc0916h17,Tc0917h10,Wb0121h12,SaD,Tc0917h16,Wb0121h07,Wb0122h10,Tc0916h10,Tc0917h14,Tc0916h11,Wb0121h09,Tc0916h07,Tc0916h14,Tc0916h16,Tc0917h15,Wb0121h11,Wb0122h13,Tc0916h15,Tc0917h07,Tc0917h09,Wb0122h09,Wb0122h16,Wb0122h17,Tc0916h13,Tc0916h18,Tc0917h13,Wb0121h15,Wb0121h17,Tc0917h18,Wb0121h08,Wb0121h18,Tc0917h12,Wb0121h10,Wb0122h07,Wb0122h14,RaD,Wb0122h11,Wb0122h15,TaD,Wb0122h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2140,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0F34B-F75A-48F5-949E-47A3FDF0A9D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EDF3B3-A6F5-426B-A8EF-3A96F44EFBFB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2997,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C5B2D1-E581-4800-9907-F9D0469538A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C50864-16A9-496C-98B6-FE276E3584E5}">
   <dimension ref="B2:O111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3076,10 +3076,10 @@
         <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>0.48574277168494512</v>
+        <v>0.17228315054835494</v>
       </c>
       <c r="O4" t="s">
         <v>300</v>
@@ -3111,10 +3111,10 @@
         <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.17228315054835491</v>
+        <v>0.3936191425722832</v>
       </c>
       <c r="O5" t="s">
         <v>300</v>
@@ -3146,10 +3146,10 @@
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>0.39361914257228309</v>
+        <v>0.48574277168494528</v>
       </c>
       <c r="O6" t="s">
         <v>300</v>
@@ -3184,7 +3184,7 @@
         <v>29</v>
       </c>
       <c r="N7">
-        <v>0.14835493519441673</v>
+        <v>0.14835493519441675</v>
       </c>
       <c r="O7" t="s">
         <v>300</v>
@@ -5900,8 +5900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9E3B5-9D47-4001-80AA-39734C802D64}">
-  <dimension ref="B2:O211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F32164-51AA-418A-8A26-76AC6BB6C332}">
+  <dimension ref="B2:O219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5970,7 +5970,7 @@
         <v>178</v>
       </c>
       <c r="J4">
-        <v>0.15698113307482336</v>
+        <v>0.14911396696068191</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -5979,7 +5979,7 @@
         <v>178</v>
       </c>
       <c r="O4">
-        <v>0.13363419092319107</v>
+        <v>0.14767510779818793</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -6002,7 +6002,7 @@
         <v>181</v>
       </c>
       <c r="J5">
-        <v>6.3800399400598298E-2</v>
+        <v>7.1401087970968211E-2</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -6011,7 +6011,7 @@
         <v>181</v>
       </c>
       <c r="O5">
-        <v>0.17004374800125466</v>
+        <v>0.22520499117390669</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -6034,7 +6034,7 @@
         <v>182</v>
       </c>
       <c r="J6">
-        <v>2.416408338836783E-2</v>
+        <v>2.4465515157931779E-2</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -6043,7 +6043,7 @@
         <v>182</v>
       </c>
       <c r="O6">
-        <v>6.9415004962052107E-2</v>
+        <v>6.9473984339850636E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -6066,7 +6066,7 @@
         <v>183</v>
       </c>
       <c r="J7">
-        <v>0.17549524994275525</v>
+        <v>0.16631280563297862</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -6075,7 +6075,7 @@
         <v>183</v>
       </c>
       <c r="O7">
-        <v>0.16523765102001819</v>
+        <v>0.1819638741569336</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -6098,7 +6098,7 @@
         <v>184</v>
       </c>
       <c r="J8">
-        <v>6.9988989435793195E-2</v>
+        <v>7.7661223845831795E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -6107,7 +6107,7 @@
         <v>184</v>
       </c>
       <c r="O8">
-        <v>0.1787354398365828</v>
+        <v>0.23430887064572503</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -6130,7 +6130,7 @@
         <v>185</v>
       </c>
       <c r="J9">
-        <v>2.742697811404228E-2</v>
+        <v>2.8604248949723129E-2</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -6139,7 +6139,7 @@
         <v>185</v>
       </c>
       <c r="O9">
-        <v>9.3246527435216997E-2</v>
+        <v>0.10685979669547474</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -6162,7 +6162,7 @@
         <v>186</v>
       </c>
       <c r="J10">
-        <v>0.15023271662690602</v>
+        <v>0.14248479647088114</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -6171,7 +6171,7 @@
         <v>186</v>
       </c>
       <c r="O10">
-        <v>0.13937816468974629</v>
+        <v>0.15429175440016363</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -6194,7 +6194,7 @@
         <v>187</v>
       </c>
       <c r="J11">
-        <v>6.0066814075893288E-2</v>
+        <v>6.7641149195623473E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -6203,7 +6203,7 @@
         <v>187</v>
       </c>
       <c r="O11">
-        <v>0.1614476395684139</v>
+        <v>0.20456927426558202</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -6226,7 +6226,7 @@
         <v>188</v>
       </c>
       <c r="J12">
-        <v>2.2888608999232854E-2</v>
+        <v>2.3139874840190908E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -6235,7 +6235,7 @@
         <v>188</v>
       </c>
       <c r="O12">
-        <v>4.7685987075025915E-2</v>
+        <v>4.3040333224193761E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -6258,7 +6258,7 @@
         <v>189</v>
       </c>
       <c r="J13">
-        <v>7.1881595074280337E-5</v>
+        <v>7.1677785769211957E-5</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -6290,7 +6290,7 @@
         <v>190</v>
       </c>
       <c r="J14">
-        <v>7.1881595074280337E-5</v>
+        <v>6.9967605000686826E-5</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -6322,7 +6322,7 @@
         <v>191</v>
       </c>
       <c r="J15">
-        <v>7.3867990126430215E-5</v>
+        <v>6.9967605000686826E-5</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -6354,7 +6354,7 @@
         <v>192</v>
       </c>
       <c r="J16">
-        <v>8.6945594025994493E-5</v>
+        <v>7.1901108343796013E-5</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -6386,7 +6386,7 @@
         <v>193</v>
       </c>
       <c r="J17">
-        <v>9.7324357231604343E-5</v>
+        <v>8.463049509508626E-5</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -6418,7 +6418,7 @@
         <v>194</v>
       </c>
       <c r="J18">
-        <v>1.1877621625983699E-4</v>
+        <v>9.4732903140085287E-5</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -6450,7 +6450,7 @@
         <v>195</v>
       </c>
       <c r="J19">
-        <v>1.3397908173495368E-4</v>
+        <v>1.1561356386369301E-4</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -6482,7 +6482,7 @@
         <v>196</v>
       </c>
       <c r="J20">
-        <v>1.3921978357466825E-4</v>
+        <v>1.3041162288481437E-4</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -6514,7 +6514,7 @@
         <v>197</v>
       </c>
       <c r="J21">
-        <v>1.397873250181397E-4</v>
+        <v>1.3551278064110242E-4</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -6546,7 +6546,7 @@
         <v>198</v>
       </c>
       <c r="J22">
-        <v>1.4109146280313778E-4</v>
+        <v>1.3606521016770504E-4</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -6578,7 +6578,7 @@
         <v>199</v>
       </c>
       <c r="J23">
-        <v>1.4099486000424907E-4</v>
+        <v>1.3733462269691958E-4</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -6610,7 +6610,7 @@
         <v>200</v>
       </c>
       <c r="J24">
-        <v>1.4097070930452684E-4</v>
+        <v>1.3724059213919999E-4</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -6642,7 +6642,7 @@
         <v>201</v>
       </c>
       <c r="J25">
-        <v>1.405118460098053E-4</v>
+        <v>1.3721708449977005E-4</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -6674,7 +6674,7 @@
         <v>202</v>
       </c>
       <c r="J26">
-        <v>1.4017373621369466E-4</v>
+        <v>1.3677043935060199E-4</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -6706,7 +6706,7 @@
         <v>203</v>
       </c>
       <c r="J27">
-        <v>1.3877903330473837E-4</v>
+        <v>1.3644133239858341E-4</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
@@ -6738,7 +6738,7 @@
         <v>204</v>
       </c>
       <c r="J28">
-        <v>1.4099486000424905E-4</v>
+        <v>1.3508376622150674E-4</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -6770,7 +6770,7 @@
         <v>205</v>
       </c>
       <c r="J29">
-        <v>1.4099486000424907E-4</v>
+        <v>1.3724059213920001E-4</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
@@ -6802,7 +6802,7 @@
         <v>206</v>
       </c>
       <c r="J30">
-        <v>1.4217824429063619E-4</v>
+        <v>1.3724059213919999E-4</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -6834,7 +6834,7 @@
         <v>207</v>
       </c>
       <c r="J31">
-        <v>1.3903261565182136E-4</v>
+        <v>1.3839246647126503E-4</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
@@ -6866,7 +6866,7 @@
         <v>208</v>
       </c>
       <c r="J32">
-        <v>1.2975874695850156E-4</v>
+        <v>1.3533059643552068E-4</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -6898,7 +6898,7 @@
         <v>209</v>
       </c>
       <c r="J33">
-        <v>1.1852263391275404E-4</v>
+        <v>1.2630366289443951E-4</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -6930,7 +6930,7 @@
         <v>210</v>
       </c>
       <c r="J34">
-        <v>9.2711573584666648E-5</v>
+        <v>1.1536673364967906E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
@@ -6962,7 +6962,7 @@
         <v>211</v>
       </c>
       <c r="J35">
-        <v>8.1849796384613022E-5</v>
+        <v>9.0242944008974622E-5</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -6991,16 +6991,16 @@
         <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J36">
-        <v>7.188159507428035E-5</v>
+        <v>7.9670383175377591E-5</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -7023,16 +7023,16 @@
         <v>295</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37">
-        <v>7.188159507428035E-5</v>
+        <v>7.1677785769211984E-5</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -7055,16 +7055,16 @@
         <v>295</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J38">
-        <v>7.3867990126430243E-5</v>
+        <v>6.996760500068684E-5</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -7087,16 +7087,16 @@
         <v>295</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J39">
-        <v>8.694559402599452E-5</v>
+        <v>6.996760500068684E-5</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -7119,16 +7119,16 @@
         <v>295</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J40">
-        <v>9.732435723160437E-5</v>
+        <v>7.1901108343796027E-5</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -7151,16 +7151,16 @@
         <v>295</v>
       </c>
       <c r="I41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J41">
-        <v>1.1877621625983699E-4</v>
+        <v>8.4630495095086288E-5</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7183,16 +7183,16 @@
         <v>295</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J42">
-        <v>1.3397908173495368E-4</v>
+        <v>9.4732903140085315E-5</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -7215,16 +7215,16 @@
         <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J43">
-        <v>1.3921978357466828E-4</v>
+        <v>1.1561356386369301E-4</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -7247,16 +7247,16 @@
         <v>295</v>
       </c>
       <c r="I44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J44">
-        <v>1.4007109573987539E-4</v>
+        <v>1.3041162288481437E-4</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -7279,16 +7279,16 @@
         <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45">
-        <v>1.4159862749730373E-4</v>
+        <v>1.3551278064110242E-4</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -7311,16 +7311,16 @@
         <v>295</v>
       </c>
       <c r="I46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J46">
-        <v>1.4121825397667929E-4</v>
+        <v>1.3634142493100637E-4</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -7343,16 +7343,16 @@
         <v>295</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J47">
-        <v>1.4030052738723615E-4</v>
+        <v>1.3782828312494747E-4</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -7375,16 +7375,16 @@
         <v>295</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J48">
-        <v>1.4074731533209666E-4</v>
+        <v>1.3745803780392657E-4</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -7407,16 +7407,16 @@
         <v>295</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J49">
-        <v>1.4074731533209666E-4</v>
+        <v>1.3656474750559043E-4</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -7439,16 +7439,16 @@
         <v>295</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J50">
-        <v>1.3921978357466831E-4</v>
+        <v>1.3699963883504355E-4</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -7471,16 +7471,16 @@
         <v>295</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J51">
-        <v>1.4099486000424907E-4</v>
+        <v>1.3699963883504355E-4</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -7503,16 +7503,16 @@
         <v>295</v>
       </c>
       <c r="I52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J52">
-        <v>1.4099486000424907E-4</v>
+        <v>1.3551278064110242E-4</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>295</v>
       </c>
       <c r="I53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J53">
-        <v>1.4217824429063622E-4</v>
+        <v>1.3724059213920001E-4</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -7567,16 +7567,16 @@
         <v>295</v>
       </c>
       <c r="I54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J54">
-        <v>1.3903261565182136E-4</v>
+        <v>1.3724059213920001E-4</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -7599,16 +7599,16 @@
         <v>295</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J55">
-        <v>1.2975874695850156E-4</v>
+        <v>1.3839246647126506E-4</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -7631,16 +7631,16 @@
         <v>295</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J56">
-        <v>1.1852263391275404E-4</v>
+        <v>1.353305964355207E-4</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7663,16 +7663,16 @@
         <v>295</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J57">
-        <v>9.2711573584666662E-5</v>
+        <v>1.2630366289443951E-4</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7695,16 +7695,16 @@
         <v>295</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J58">
-        <v>8.1849796384613049E-5</v>
+        <v>1.1536673364967907E-4</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -7727,19 +7727,19 @@
         <v>295</v>
       </c>
       <c r="I59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J59">
-        <v>0.15299359278847693</v>
+        <v>9.0242944008974636E-5</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O59">
-        <v>0.15169955718528128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
@@ -7759,19 +7759,19 @@
         <v>295</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J60">
-        <v>6.2157537746890437E-2</v>
+        <v>7.9670383175377605E-5</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O60">
-        <v>0.15537768469394608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
@@ -7791,19 +7791,19 @@
         <v>295</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J61">
-        <v>2.2640971651549598E-2</v>
+        <v>0.14549629391367155</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O61">
-        <v>4.9807352721212395E-2</v>
+        <v>0.16541311857634367</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
@@ -7823,19 +7823,19 @@
         <v>295</v>
       </c>
       <c r="I62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J62">
-        <v>7.5998792030174098E-5</v>
+        <v>6.9594560142280659E-2</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.18928899468198801</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
@@ -7855,19 +7855,19 @@
         <v>295</v>
       </c>
       <c r="I63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J63">
-        <v>7.5998792030174098E-5</v>
+        <v>2.2926964095661206E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>4.1464814849328624E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
@@ -7887,16 +7887,16 @@
         <v>295</v>
       </c>
       <c r="I64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J64">
-        <v>8.124553154481924E-5</v>
+        <v>7.4539356765906665E-5</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -7919,16 +7919,16 @@
         <v>295</v>
       </c>
       <c r="I65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J65">
-        <v>9.0151102067375708E-5</v>
+        <v>7.3975173419589069E-5</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -7951,16 +7951,16 @@
         <v>295</v>
       </c>
       <c r="I66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J66">
-        <v>1.0075929692034636E-4</v>
+        <v>7.3975173419589069E-5</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -7983,16 +7983,16 @@
         <v>295</v>
       </c>
       <c r="I67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J67">
-        <v>1.2034551439504003E-4</v>
+        <v>7.908220808573461E-5</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -8015,16 +8015,16 @@
         <v>295</v>
       </c>
       <c r="I68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J68">
-        <v>1.3491442400244936E-4</v>
+        <v>8.7750650125509828E-5</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8047,16 +8047,16 @@
         <v>295</v>
       </c>
       <c r="I69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J69">
-        <v>1.3844646383681921E-4</v>
+        <v>9.8076380745092925E-5</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8079,16 +8079,16 @@
         <v>295</v>
       </c>
       <c r="I70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J70">
-        <v>1.4427885781972738E-4</v>
+        <v>1.1714107632274093E-4</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -8111,16 +8111,16 @@
         <v>295</v>
       </c>
       <c r="I71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J71">
-        <v>1.4671807849166824E-4</v>
+        <v>1.3132205980882747E-4</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -8143,16 +8143,16 @@
         <v>295</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J72">
-        <v>1.4662147569277951E-4</v>
+        <v>1.3476005207545014E-4</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -8175,16 +8175,16 @@
         <v>295</v>
       </c>
       <c r="I73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J73">
-        <v>1.4662147569277951E-4</v>
+        <v>1.4043714699777074E-4</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -8207,16 +8207,16 @@
         <v>295</v>
       </c>
       <c r="I74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J74">
-        <v>1.449430020620875E-4</v>
+        <v>1.4281141858019054E-4</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -8239,16 +8239,16 @@
         <v>295</v>
       </c>
       <c r="I75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J75">
-        <v>1.4325245308153441E-4</v>
+        <v>1.4271738802247092E-4</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8271,16 +8271,16 @@
         <v>295</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J76">
-        <v>1.3786080936855618E-4</v>
+        <v>1.4271738802247095E-4</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>295</v>
       </c>
       <c r="I77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J77">
-        <v>1.4007663606806683E-4</v>
+        <v>1.4108360708209295E-4</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -8335,16 +8335,16 @@
         <v>295</v>
       </c>
       <c r="I78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J78">
-        <v>1.4043285888896907E-4</v>
+        <v>1.3943807232200003E-4</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -8367,16 +8367,16 @@
         <v>295</v>
       </c>
       <c r="I79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J79">
-        <v>1.4161624317535627E-4</v>
+        <v>1.3418999181927512E-4</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -8399,16 +8399,16 @@
         <v>295</v>
       </c>
       <c r="I80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J80">
-        <v>1.3781250796911183E-4</v>
+        <v>1.3634681773696831E-4</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -8431,16 +8431,16 @@
         <v>295</v>
       </c>
       <c r="I81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J81">
-        <v>1.2672733679662798E-4</v>
+        <v>1.3669355541855933E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8463,16 +8463,16 @@
         <v>295</v>
       </c>
       <c r="I82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J82">
-        <v>1.1780969092421039E-4</v>
+        <v>1.378454297506244E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -8495,16 +8495,16 @@
         <v>295</v>
       </c>
       <c r="I83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J83">
-        <v>9.5198598309312798E-5</v>
+        <v>1.3414297654041528E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -8527,16 +8527,16 @@
         <v>295</v>
       </c>
       <c r="I84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J84">
-        <v>8.361230011759359E-5</v>
+        <v>1.2335297004209173E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -8559,16 +8559,16 @@
         <v>295</v>
       </c>
       <c r="I85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J85">
-        <v>7.3994283953232587E-5</v>
+        <v>1.1467277418260155E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -8591,16 +8591,16 @@
         <v>295</v>
       </c>
       <c r="I86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J86">
-        <v>7.3318064361011344E-5</v>
+        <v>9.2663746766358701E-5</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -8623,16 +8623,16 @@
         <v>295</v>
       </c>
       <c r="I87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J87">
-        <v>7.8806310872878333E-5</v>
+        <v>8.1385956749864725E-5</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -8655,16 +8655,16 @@
         <v>295</v>
       </c>
       <c r="I88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J88">
-        <v>8.7717919070365373E-5</v>
+        <v>7.3928158140729286E-5</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -8687,16 +8687,16 @@
         <v>295</v>
       </c>
       <c r="I89" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J89">
-        <v>1.0008911500305567E-4</v>
+        <v>7.2024039346907473E-5</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -8719,16 +8719,16 @@
         <v>295</v>
       </c>
       <c r="I90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J90">
-        <v>1.2037570276969279E-4</v>
+        <v>7.1365825442870298E-5</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -8751,16 +8751,16 @@
         <v>295</v>
       </c>
       <c r="I91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J91">
-        <v>1.3491442400244931E-4</v>
+        <v>7.6707936503314807E-5</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>295</v>
       </c>
       <c r="I92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J92">
-        <v>1.3886910108195749E-4</v>
+        <v>8.5382255452947536E-5</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -8815,16 +8815,16 @@
         <v>295</v>
       </c>
       <c r="I93" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J93">
-        <v>1.4450828946708814E-4</v>
+        <v>9.7424043750913233E-5</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>295</v>
       </c>
       <c r="I94" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J94">
-        <v>1.5379423351026905E-4</v>
+        <v>1.1717046087202829E-4</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -8879,16 +8879,16 @@
         <v>295</v>
       </c>
       <c r="I95" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J95">
-        <v>1.5085992349402332E-4</v>
+        <v>1.3132205980882742E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -8911,16 +8911,16 @@
         <v>295</v>
       </c>
       <c r="I96" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J96">
-        <v>1.5085992349402332E-4</v>
+        <v>1.3517143576547336E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -8943,16 +8943,16 @@
         <v>295</v>
       </c>
       <c r="I97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J97">
-        <v>1.4918144986333134E-4</v>
+        <v>1.4066046957235477E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -8975,16 +8975,16 @@
         <v>295</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J98">
-        <v>1.4589091702618337E-4</v>
+        <v>1.4969915693315087E-4</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -9007,16 +9007,16 @@
         <v>295</v>
       </c>
       <c r="I99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J99">
-        <v>1.3838608708751374E-4</v>
+        <v>1.4684297874241817E-4</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -9039,16 +9039,16 @@
         <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J100">
-        <v>1.4060191378702439E-4</v>
+        <v>1.4684297874241817E-4</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -9071,16 +9071,16 @@
         <v>295</v>
       </c>
       <c r="I101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J101">
-        <v>1.4043285888896907E-4</v>
+        <v>1.4520919780204022E-4</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -9103,16 +9103,16 @@
         <v>295</v>
       </c>
       <c r="I102" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J102">
-        <v>1.4161624317535627E-4</v>
+        <v>1.4200628192971652E-4</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -9135,16 +9135,16 @@
         <v>295</v>
       </c>
       <c r="I103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J103">
-        <v>1.3781250796911183E-4</v>
+        <v>1.3470128297687539E-4</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -9167,16 +9167,16 @@
         <v>295</v>
       </c>
       <c r="I104" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J104">
-        <v>1.2699903216850257E-4</v>
+        <v>1.3685810889456867E-4</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>295</v>
       </c>
       <c r="I105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J105">
-        <v>1.1780969092421039E-4</v>
+        <v>1.3669355541855933E-4</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -9231,16 +9231,16 @@
         <v>295</v>
       </c>
       <c r="I106" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J106">
-        <v>9.4981242011813114E-5</v>
+        <v>1.378454297506244E-4</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -9263,16 +9263,16 @@
         <v>295</v>
       </c>
       <c r="I107" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J107">
-        <v>8.3612300117593563E-5</v>
+        <v>1.3414297654041528E-4</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -9292,13 +9292,22 @@
         <v>291</v>
       </c>
       <c r="H108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I108" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="J108">
-        <v>0.1433449377564199</v>
+        <v>1.2361743098567805E-4</v>
+      </c>
+      <c r="M108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108" t="s">
+        <v>284</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
@@ -9315,13 +9324,22 @@
         <v>291</v>
       </c>
       <c r="H109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I109" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="J109">
-        <v>8.6616938881018096E-2</v>
+        <v>1.1467277418260155E-4</v>
+      </c>
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109" t="s">
+        <v>285</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
@@ -9338,13 +9356,22 @@
         <v>291</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I110" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="J110">
-        <v>2.2053706378496806E-2</v>
+        <v>9.2452178011489611E-5</v>
+      </c>
+      <c r="M110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" t="s">
+        <v>286</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
@@ -9361,13 +9388,22 @@
         <v>291</v>
       </c>
       <c r="H111" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I111" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="J111">
-        <v>0.14356943657598828</v>
+        <v>8.1385956749864698E-5</v>
+      </c>
+      <c r="M111" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111" t="s">
+        <v>287</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
@@ -9375,10 +9411,10 @@
         <v>296</v>
       </c>
       <c r="I112" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J112">
-        <v>8.6501970578679976E-2</v>
+        <v>0.13729885231683758</v>
       </c>
     </row>
     <row r="113" spans="8:10" x14ac:dyDescent="0.45">
@@ -9386,10 +9422,10 @@
         <v>296</v>
       </c>
       <c r="I113" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J113">
-        <v>2.2108406445529302E-2</v>
+        <v>9.3527751962487499E-2</v>
       </c>
     </row>
     <row r="114" spans="8:10" x14ac:dyDescent="0.45">
@@ -9397,10 +9433,10 @@
         <v>296</v>
       </c>
       <c r="I114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J114">
-        <v>0.13867576211693525</v>
+        <v>2.1195970279540996E-2</v>
       </c>
     </row>
     <row r="115" spans="8:10" x14ac:dyDescent="0.45">
@@ -9408,10 +9444,10 @@
         <v>296</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J115">
-        <v>8.3763991229191023E-2</v>
+        <v>0.13747475593990818</v>
       </c>
     </row>
     <row r="116" spans="8:10" x14ac:dyDescent="0.45">
@@ -9419,10 +9455,10 @@
         <v>296</v>
       </c>
       <c r="I116" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J116">
-        <v>2.1323833141833608E-2</v>
+        <v>9.337895204285053E-2</v>
       </c>
     </row>
     <row r="117" spans="8:10" x14ac:dyDescent="0.45">
@@ -9430,10 +9466,10 @@
         <v>296</v>
       </c>
       <c r="I117" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J117">
-        <v>1.1704624193942443E-4</v>
+        <v>2.1294561924603311E-2</v>
       </c>
     </row>
     <row r="118" spans="8:10" x14ac:dyDescent="0.45">
@@ -9441,10 +9477,10 @@
         <v>296</v>
       </c>
       <c r="I118" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J118">
-        <v>1.1704624193942443E-4</v>
+        <v>0.13281796440406418</v>
       </c>
     </row>
     <row r="119" spans="8:10" x14ac:dyDescent="0.45">
@@ -9452,10 +9488,10 @@
         <v>296</v>
       </c>
       <c r="I119" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J119">
-        <v>1.1714284653105948E-4</v>
+        <v>9.0465345893233656E-2</v>
       </c>
     </row>
     <row r="120" spans="8:10" x14ac:dyDescent="0.45">
@@ -9463,10 +9499,10 @@
         <v>296</v>
       </c>
       <c r="I120" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J120">
-        <v>1.1777885122857169E-4</v>
+        <v>2.0491951214251649E-2</v>
       </c>
     </row>
     <row r="121" spans="8:10" x14ac:dyDescent="0.45">
@@ -9474,10 +9510,10 @@
         <v>296</v>
       </c>
       <c r="I121" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J121">
-        <v>1.1828360287909037E-4</v>
+        <v>1.1233561446239411E-4</v>
       </c>
     </row>
     <row r="122" spans="8:10" x14ac:dyDescent="0.45">
@@ -9485,10 +9521,10 @@
         <v>296</v>
       </c>
       <c r="I122" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J122">
-        <v>1.1932687374255334E-4</v>
+        <v>1.1225366654496469E-4</v>
       </c>
     </row>
     <row r="123" spans="8:10" x14ac:dyDescent="0.45">
@@ -9496,10 +9532,10 @@
         <v>296</v>
       </c>
       <c r="I123" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J123">
-        <v>1.2006623654418571E-4</v>
+        <v>1.1225366654496469E-4</v>
       </c>
     </row>
     <row r="124" spans="8:10" x14ac:dyDescent="0.45">
@@ -9507,10 +9543,10 @@
         <v>296</v>
       </c>
       <c r="I124" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J124">
-        <v>1.2032110823275479E-4</v>
+        <v>1.1234631556501375E-4</v>
       </c>
     </row>
     <row r="125" spans="8:10" x14ac:dyDescent="0.45">
@@ -9518,10 +9554,10 @@
         <v>296</v>
       </c>
       <c r="I125" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J125">
-        <v>1.203487095446505E-4</v>
+        <v>1.1295627841433372E-4</v>
       </c>
     </row>
     <row r="126" spans="8:10" x14ac:dyDescent="0.45">
@@ -9529,10 +9565,10 @@
         <v>296</v>
       </c>
       <c r="I126" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J126">
-        <v>1.2041213383581516E-4</v>
+        <v>1.1344036250389097E-4</v>
       </c>
     </row>
     <row r="127" spans="8:10" x14ac:dyDescent="0.45">
@@ -9540,10 +9576,10 @@
         <v>296</v>
       </c>
       <c r="I127" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J127">
-        <v>1.2040743574017333E-4</v>
+        <v>1.144409155988281E-4</v>
       </c>
     </row>
     <row r="128" spans="8:10" x14ac:dyDescent="0.45">
@@ -9551,10 +9587,10 @@
         <v>296</v>
       </c>
       <c r="I128" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J128">
-        <v>1.2040626121626288E-4</v>
+        <v>1.1515000445136165E-4</v>
       </c>
     </row>
     <row r="129" spans="8:10" x14ac:dyDescent="0.45">
@@ -9562,10 +9598,10 @@
         <v>296</v>
       </c>
       <c r="I129" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J129">
-        <v>1.203839452619642E-4</v>
+        <v>1.1539444016383153E-4</v>
       </c>
     </row>
     <row r="130" spans="8:10" x14ac:dyDescent="0.45">
@@ -9573,10 +9609,10 @@
         <v>296</v>
       </c>
       <c r="I130" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J130">
-        <v>1.2036750192721781E-4</v>
+        <v>1.1542091131241697E-4</v>
       </c>
     </row>
     <row r="131" spans="8:10" x14ac:dyDescent="0.45">
@@ -9584,10 +9620,10 @@
         <v>296</v>
       </c>
       <c r="I131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J131">
-        <v>1.2029967317138896E-4</v>
+        <v>1.1548173863257076E-4</v>
       </c>
     </row>
     <row r="132" spans="8:10" x14ac:dyDescent="0.45">
@@ -9595,10 +9631,10 @@
         <v>296</v>
       </c>
       <c r="I132" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J132">
-        <v>1.2040743574017333E-4</v>
+        <v>1.1547723290515196E-4</v>
       </c>
     </row>
     <row r="133" spans="8:10" x14ac:dyDescent="0.45">
@@ -9606,10 +9642,10 @@
         <v>296</v>
       </c>
       <c r="I133" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J133">
-        <v>1.2040743574017333E-4</v>
+        <v>1.1547610647329726E-4</v>
       </c>
     </row>
     <row r="134" spans="8:10" x14ac:dyDescent="0.45">
@@ -9617,10 +9653,10 @@
         <v>296</v>
       </c>
       <c r="I134" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J134">
-        <v>1.2046498741178571E-4</v>
+        <v>1.1545470426805797E-4</v>
       </c>
     </row>
     <row r="135" spans="8:10" x14ac:dyDescent="0.45">
@@ -9628,10 +9664,10 @@
         <v>296</v>
       </c>
       <c r="I135" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J135">
-        <v>1.2031200567244875E-4</v>
+        <v>1.1543893422209217E-4</v>
       </c>
     </row>
     <row r="136" spans="8:10" x14ac:dyDescent="0.45">
@@ -9639,10 +9675,10 @@
         <v>296</v>
       </c>
       <c r="I136" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J136">
-        <v>1.1986098849083345E-4</v>
+        <v>1.1537388278248326E-4</v>
       </c>
     </row>
     <row r="137" spans="8:10" x14ac:dyDescent="0.45">
@@ -9650,10 +9686,10 @@
         <v>296</v>
       </c>
       <c r="I137" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J137">
-        <v>1.1931454124149356E-4</v>
+        <v>1.1547723290515196E-4</v>
       </c>
     </row>
     <row r="138" spans="8:10" x14ac:dyDescent="0.45">
@@ -9661,10 +9697,10 @@
         <v>296</v>
       </c>
       <c r="I138" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J138">
-        <v>1.1805926881219316E-4</v>
+        <v>1.1547723290515196E-4</v>
       </c>
     </row>
     <row r="139" spans="8:10" x14ac:dyDescent="0.45">
@@ -9672,10 +9708,10 @@
         <v>296</v>
       </c>
       <c r="I139" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J139">
-        <v>1.1753102668346536E-4</v>
+        <v>1.1553242806603226E-4</v>
       </c>
     </row>
     <row r="140" spans="8:10" x14ac:dyDescent="0.45">
@@ -9683,10 +9719,10 @@
         <v>296</v>
       </c>
       <c r="I140" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J140">
-        <v>1.1704624193942442E-4</v>
+        <v>1.153857103169576E-4</v>
       </c>
     </row>
     <row r="141" spans="8:10" x14ac:dyDescent="0.45">
@@ -9694,10 +9730,10 @@
         <v>296</v>
       </c>
       <c r="I141" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J141">
-        <v>1.1704624193942442E-4</v>
+        <v>1.1495316048475286E-4</v>
       </c>
     </row>
     <row r="142" spans="8:10" x14ac:dyDescent="0.45">
@@ -9705,10 +9741,10 @@
         <v>296</v>
       </c>
       <c r="I142" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J142">
-        <v>1.1714284653105945E-4</v>
+        <v>1.1442908806435377E-4</v>
       </c>
     </row>
     <row r="143" spans="8:10" x14ac:dyDescent="0.45">
@@ -9716,10 +9752,10 @@
         <v>296</v>
       </c>
       <c r="I143" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J143">
-        <v>1.1777885122857166E-4</v>
+        <v>1.1322521401964329E-4</v>
       </c>
     </row>
     <row r="144" spans="8:10" x14ac:dyDescent="0.45">
@@ -9727,10 +9763,10 @@
         <v>296</v>
       </c>
       <c r="I144" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J144">
-        <v>1.1828360287909035E-4</v>
+        <v>1.1271860129299204E-4</v>
       </c>
     </row>
     <row r="145" spans="8:10" x14ac:dyDescent="0.45">
@@ -9738,10 +9774,10 @@
         <v>296</v>
       </c>
       <c r="I145" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J145">
-        <v>1.1932687374255334E-4</v>
+        <v>1.1233561446239408E-4</v>
       </c>
     </row>
     <row r="146" spans="8:10" x14ac:dyDescent="0.45">
@@ -9749,10 +9785,10 @@
         <v>296</v>
       </c>
       <c r="I146" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J146">
-        <v>1.2006623654418571E-4</v>
+        <v>1.1225366654496467E-4</v>
       </c>
     </row>
     <row r="147" spans="8:10" x14ac:dyDescent="0.45">
@@ -9760,10 +9796,10 @@
         <v>296</v>
       </c>
       <c r="I147" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J147">
-        <v>1.2032110823275476E-4</v>
+        <v>1.1225366654496467E-4</v>
       </c>
     </row>
     <row r="148" spans="8:10" x14ac:dyDescent="0.45">
@@ -9771,10 +9807,10 @@
         <v>296</v>
       </c>
       <c r="I148" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J148">
-        <v>1.2036251020059835E-4</v>
+        <v>1.1234631556501373E-4</v>
       </c>
     </row>
     <row r="149" spans="8:10" x14ac:dyDescent="0.45">
@@ -9782,10 +9818,10 @@
         <v>296</v>
       </c>
       <c r="I149" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J149">
-        <v>1.2043679883793474E-4</v>
+        <v>1.129562784143337E-4</v>
       </c>
     </row>
     <row r="150" spans="8:10" x14ac:dyDescent="0.45">
@@ -9793,10 +9829,10 @@
         <v>296</v>
       </c>
       <c r="I150" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J150">
-        <v>1.2041830008634504E-4</v>
+        <v>1.1344036250389096E-4</v>
       </c>
     </row>
     <row r="151" spans="8:10" x14ac:dyDescent="0.45">
@@ -9804,10 +9840,10 @@
         <v>296</v>
       </c>
       <c r="I151" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J151">
-        <v>1.203736681777477E-4</v>
+        <v>1.144409155988281E-4</v>
       </c>
     </row>
     <row r="152" spans="8:10" x14ac:dyDescent="0.45">
@@ -9815,10 +9851,10 @@
         <v>296</v>
       </c>
       <c r="I152" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J152">
-        <v>1.2039539687009114E-4</v>
+        <v>1.1515000445136165E-4</v>
       </c>
     </row>
     <row r="153" spans="8:10" x14ac:dyDescent="0.45">
@@ -9826,10 +9862,10 @@
         <v>296</v>
       </c>
       <c r="I153" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J153">
-        <v>1.2039539687009114E-4</v>
+        <v>1.1539444016383152E-4</v>
       </c>
     </row>
     <row r="154" spans="8:10" x14ac:dyDescent="0.45">
@@ -9837,10 +9873,10 @@
         <v>296</v>
       </c>
       <c r="I154" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J154">
-        <v>1.2032110823275476E-4</v>
+        <v>1.1543414688670967E-4</v>
       </c>
     </row>
     <row r="155" spans="8:10" x14ac:dyDescent="0.45">
@@ -9848,10 +9884,10 @@
         <v>296</v>
       </c>
       <c r="I155" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J155">
-        <v>1.2040743574017331E-4</v>
+        <v>1.1550539370151945E-4</v>
       </c>
     </row>
     <row r="156" spans="8:10" x14ac:dyDescent="0.45">
@@ -9859,10 +9895,10 @@
         <v>296</v>
       </c>
       <c r="I156" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J156">
-        <v>1.2040743574017331E-4</v>
+        <v>1.1548765239980792E-4</v>
       </c>
     </row>
     <row r="157" spans="8:10" x14ac:dyDescent="0.45">
@@ -9870,10 +9906,10 @@
         <v>296</v>
       </c>
       <c r="I157" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J157">
-        <v>1.2046498741178569E-4</v>
+        <v>1.1544484798932934E-4</v>
       </c>
     </row>
     <row r="158" spans="8:10" x14ac:dyDescent="0.45">
@@ -9881,10 +9917,10 @@
         <v>296</v>
       </c>
       <c r="I158" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J158">
-        <v>1.2031200567244873E-4</v>
+        <v>1.1546568697864127E-4</v>
       </c>
     </row>
     <row r="159" spans="8:10" x14ac:dyDescent="0.45">
@@ -9892,10 +9928,10 @@
         <v>296</v>
       </c>
       <c r="I159" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J159">
-        <v>1.1986098849083342E-4</v>
+        <v>1.1546568697864127E-4</v>
       </c>
     </row>
     <row r="160" spans="8:10" x14ac:dyDescent="0.45">
@@ -9903,10 +9939,10 @@
         <v>296</v>
       </c>
       <c r="I160" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J160">
-        <v>1.1931454124149355E-4</v>
+        <v>1.1539444016383152E-4</v>
       </c>
     </row>
     <row r="161" spans="8:10" x14ac:dyDescent="0.45">
@@ -9914,10 +9950,10 @@
         <v>296</v>
       </c>
       <c r="I161" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J161">
-        <v>1.1805926881219316E-4</v>
+        <v>1.1547723290515194E-4</v>
       </c>
     </row>
     <row r="162" spans="8:10" x14ac:dyDescent="0.45">
@@ -9925,10 +9961,10 @@
         <v>296</v>
       </c>
       <c r="I162" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J162">
-        <v>1.1753102668346533E-4</v>
+        <v>1.1547723290515194E-4</v>
       </c>
     </row>
     <row r="163" spans="8:10" x14ac:dyDescent="0.45">
@@ -9936,10 +9972,10 @@
         <v>296</v>
       </c>
       <c r="I163" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J163">
-        <v>0.13715570565395938</v>
+        <v>1.1553242806603224E-4</v>
       </c>
     </row>
     <row r="164" spans="8:10" x14ac:dyDescent="0.45">
@@ -9947,10 +9983,10 @@
         <v>296</v>
       </c>
       <c r="I164" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J164">
-        <v>8.2847622577426325E-2</v>
+        <v>1.1538571031695759E-4</v>
       </c>
     </row>
     <row r="165" spans="8:10" x14ac:dyDescent="0.45">
@@ -9958,10 +9994,10 @@
         <v>296</v>
       </c>
       <c r="I165" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J165">
-        <v>2.1057277997205793E-2</v>
+        <v>1.1495316048475284E-4</v>
       </c>
     </row>
     <row r="166" spans="8:10" x14ac:dyDescent="0.45">
@@ -9969,10 +10005,10 @@
         <v>296</v>
       </c>
       <c r="I166" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J166">
-        <v>1.1704831228645575E-4</v>
+        <v>1.1442908806435374E-4</v>
       </c>
     </row>
     <row r="167" spans="8:10" x14ac:dyDescent="0.45">
@@ -9980,10 +10016,10 @@
         <v>296</v>
       </c>
       <c r="I167" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J167">
-        <v>1.1704831228645575E-4</v>
+        <v>1.1322521401964329E-4</v>
       </c>
     </row>
     <row r="168" spans="8:10" x14ac:dyDescent="0.45">
@@ -9991,10 +10027,10 @@
         <v>296</v>
       </c>
       <c r="I168" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J168">
-        <v>1.1730347760600242E-4</v>
+        <v>1.1271860129299203E-4</v>
       </c>
     </row>
     <row r="169" spans="8:10" x14ac:dyDescent="0.45">
@@ -10002,10 +10038,10 @@
         <v>296</v>
       </c>
       <c r="I169" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J169">
-        <v>1.1773658329798325E-4</v>
+        <v>0.13137567997828634</v>
       </c>
     </row>
     <row r="170" spans="8:10" x14ac:dyDescent="0.45">
@@ -10013,10 +10049,10 @@
         <v>296</v>
       </c>
       <c r="I170" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J170">
-        <v>1.1825249292565127E-4</v>
+        <v>8.9460541460678847E-2</v>
       </c>
     </row>
     <row r="171" spans="8:10" x14ac:dyDescent="0.45">
@@ -10024,10 +10060,10 @@
         <v>296</v>
       </c>
       <c r="I171" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J171">
-        <v>1.1920503181703149E-4</v>
+        <v>2.0237658493834128E-2</v>
       </c>
     </row>
     <row r="172" spans="8:10" x14ac:dyDescent="0.45">
@@ -10035,10 +10071,10 @@
         <v>296</v>
       </c>
       <c r="I172" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J172">
-        <v>1.1991356336601438E-4</v>
+        <v>1.1228268648407974E-4</v>
       </c>
     </row>
     <row r="173" spans="8:10" x14ac:dyDescent="0.45">
@@ -10046,10 +10082,10 @@
         <v>296</v>
       </c>
       <c r="I173" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J173">
-        <v>1.2008533748791865E-4</v>
+        <v>1.1225565211956695E-4</v>
       </c>
     </row>
     <row r="174" spans="8:10" x14ac:dyDescent="0.45">
@@ -10057,10 +10093,10 @@
         <v>296</v>
       </c>
       <c r="I174" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J174">
-        <v>1.2036898501229388E-4</v>
+        <v>1.1225565211956695E-4</v>
       </c>
     </row>
     <row r="175" spans="8:10" x14ac:dyDescent="0.45">
@@ -10068,10 +10104,10 @@
         <v>296</v>
       </c>
       <c r="I175" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J175">
-        <v>1.2048761192724999E-4</v>
+        <v>1.1250036944000049E-4</v>
       </c>
     </row>
     <row r="176" spans="8:10" x14ac:dyDescent="0.45">
@@ -10079,10 +10115,10 @@
         <v>296</v>
       </c>
       <c r="I176" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J176">
-        <v>1.2048291383160818E-4</v>
+        <v>1.1291574118642106E-4</v>
       </c>
     </row>
     <row r="177" spans="8:10" x14ac:dyDescent="0.45">
@@ -10090,10 +10126,10 @@
         <v>296</v>
       </c>
       <c r="I177" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J177">
-        <v>1.2048291383160818E-4</v>
+        <v>1.1341052637859796E-4</v>
       </c>
     </row>
     <row r="178" spans="8:10" x14ac:dyDescent="0.45">
@@ -10101,10 +10137,10 @@
         <v>296</v>
       </c>
       <c r="I178" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J178">
-        <v>1.2040128441983145E-4</v>
+        <v>1.1432406261275953E-4</v>
       </c>
     </row>
     <row r="179" spans="8:10" x14ac:dyDescent="0.45">
@@ -10112,10 +10148,10 @@
         <v>296</v>
       </c>
       <c r="I179" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J179">
-        <v>1.203190677460995E-4</v>
+        <v>1.150035826291072E-4</v>
       </c>
     </row>
     <row r="180" spans="8:10" x14ac:dyDescent="0.45">
@@ -10123,10 +10159,10 @@
         <v>296</v>
       </c>
       <c r="I180" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J180">
-        <v>1.2005685528309007E-4</v>
+        <v>1.1516832328785706E-4</v>
       </c>
     </row>
     <row r="181" spans="8:10" x14ac:dyDescent="0.45">
@@ -10134,10 +10170,10 @@
         <v>296</v>
       </c>
       <c r="I181" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J181">
-        <v>1.2016461785187446E-4</v>
+        <v>1.1544035658076708E-4</v>
       </c>
     </row>
     <row r="182" spans="8:10" x14ac:dyDescent="0.45">
@@ -10145,10 +10181,10 @@
         <v>296</v>
       </c>
       <c r="I182" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J182">
-        <v>1.201819420795537E-4</v>
+        <v>1.1555412619809176E-4</v>
       </c>
     </row>
     <row r="183" spans="8:10" x14ac:dyDescent="0.45">
@@ -10156,10 +10192,10 @@
         <v>296</v>
       </c>
       <c r="I183" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J183">
-        <v>1.2023949375116605E-4</v>
+        <v>1.1554962047067297E-4</v>
       </c>
     </row>
     <row r="184" spans="8:10" x14ac:dyDescent="0.45">
@@ -10167,10 +10203,10 @@
         <v>296</v>
       </c>
       <c r="I184" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J184">
-        <v>1.2005450623526916E-4</v>
+        <v>1.1554962047067297E-4</v>
       </c>
     </row>
     <row r="185" spans="8:10" x14ac:dyDescent="0.45">
@@ -10178,10 +10214,10 @@
         <v>296</v>
       </c>
       <c r="I185" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J185">
-        <v>1.1951539976036962E-4</v>
+        <v>1.1547133345677133E-4</v>
       </c>
     </row>
     <row r="186" spans="8:10" x14ac:dyDescent="0.45">
@@ -10189,10 +10225,10 @@
         <v>296</v>
       </c>
       <c r="I186" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J186">
-        <v>1.1908170680643357E-4</v>
+        <v>1.1539248322694234E-4</v>
       </c>
     </row>
     <row r="187" spans="8:10" x14ac:dyDescent="0.45">
@@ -10200,10 +10236,10 @@
         <v>296</v>
       </c>
       <c r="I187" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J187">
-        <v>1.1798205879526866E-4</v>
+        <v>1.1514100731538059E-4</v>
       </c>
     </row>
     <row r="188" spans="8:10" x14ac:dyDescent="0.45">
@@ -10211,10 +10247,10 @@
         <v>296</v>
       </c>
       <c r="I188" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J188">
-        <v>1.1741858094922714E-4</v>
+        <v>1.1524435743804932E-4</v>
       </c>
     </row>
     <row r="189" spans="8:10" x14ac:dyDescent="0.45">
@@ -10222,10 +10258,10 @@
         <v>296</v>
       </c>
       <c r="I189" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J189">
-        <v>1.1695082680188786E-4</v>
+        <v>1.1526097230790612E-4</v>
       </c>
     </row>
     <row r="190" spans="8:10" x14ac:dyDescent="0.45">
@@ -10233,10 +10269,10 @@
         <v>296</v>
       </c>
       <c r="I190" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J190">
-        <v>1.1691794013239506E-4</v>
+        <v>1.1531616746878642E-4</v>
       </c>
     </row>
     <row r="191" spans="8:10" x14ac:dyDescent="0.45">
@@ -10244,10 +10280,10 @@
         <v>296</v>
       </c>
       <c r="I191" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J191">
-        <v>1.1718485069104631E-4</v>
+        <v>1.1513875445167119E-4</v>
       </c>
     </row>
     <row r="192" spans="8:10" x14ac:dyDescent="0.45">
@@ -10255,10 +10291,10 @@
         <v>296</v>
       </c>
       <c r="I192" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J192">
-        <v>1.1761825001400475E-4</v>
+        <v>1.1462172223036396E-4</v>
       </c>
     </row>
     <row r="193" spans="8:10" x14ac:dyDescent="0.45">
@@ -10266,10 +10302,10 @@
         <v>296</v>
       </c>
       <c r="I193" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J193">
-        <v>1.1821989988713611E-4</v>
+        <v>1.1420578726801605E-4</v>
       </c>
     </row>
     <row r="194" spans="8:10" x14ac:dyDescent="0.45">
@@ -10277,10 +10313,10 @@
         <v>296</v>
       </c>
       <c r="I194" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J194">
-        <v>1.1920649997191956E-4</v>
+        <v>1.1315116544405332E-4</v>
       </c>
     </row>
     <row r="195" spans="8:10" x14ac:dyDescent="0.45">
@@ -10288,10 +10324,10 @@
         <v>296</v>
       </c>
       <c r="I195" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J195">
-        <v>1.1991356336601439E-4</v>
+        <v>1.1261075976176107E-4</v>
       </c>
     </row>
     <row r="196" spans="8:10" x14ac:dyDescent="0.45">
@@ -10299,10 +10335,10 @@
         <v>296</v>
       </c>
       <c r="I196" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J196">
-        <v>1.2010589165635163E-4</v>
+        <v>1.1225339925585755E-4</v>
       </c>
     </row>
     <row r="197" spans="8:10" x14ac:dyDescent="0.45">
@@ -10310,10 +10346,10 @@
         <v>296</v>
       </c>
       <c r="I197" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J197">
-        <v>1.2038014298944324E-4</v>
+        <v>1.1216215827562686E-4</v>
       </c>
     </row>
     <row r="198" spans="8:10" x14ac:dyDescent="0.45">
@@ -10321,10 +10357,10 @@
         <v>296</v>
       </c>
       <c r="I198" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J198">
-        <v>1.2083174743301377E-4</v>
+        <v>1.1213061818369526E-4</v>
       </c>
     </row>
     <row r="199" spans="8:10" x14ac:dyDescent="0.45">
@@ -10332,10 +10368,10 @@
         <v>296</v>
       </c>
       <c r="I199" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J199">
-        <v>1.206890427778933E-4</v>
+        <v>1.1238659982267581E-4</v>
       </c>
     </row>
     <row r="200" spans="8:10" x14ac:dyDescent="0.45">
@@ -10343,10 +10379,10 @@
         <v>296</v>
       </c>
       <c r="I200" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J200">
-        <v>1.206890427778933E-4</v>
+        <v>1.1280225317706004E-4</v>
       </c>
     </row>
     <row r="201" spans="8:10" x14ac:dyDescent="0.45">
@@ -10354,10 +10390,10 @@
         <v>296</v>
       </c>
       <c r="I201" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J201">
-        <v>1.2060741336611656E-4</v>
+        <v>1.1337926789463004E-4</v>
       </c>
     </row>
     <row r="202" spans="8:10" x14ac:dyDescent="0.45">
@@ -10365,10 +10401,10 @@
         <v>296</v>
       </c>
       <c r="I202" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J202">
-        <v>1.2044738448331686E-4</v>
+        <v>1.1432547065257791E-4</v>
       </c>
     </row>
     <row r="203" spans="8:10" x14ac:dyDescent="0.45">
@@ -10376,10 +10412,10 @@
         <v>296</v>
       </c>
       <c r="I203" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J203">
-        <v>1.2008240117814251E-4</v>
+        <v>1.1500358262910723E-4</v>
       </c>
     </row>
     <row r="204" spans="8:10" x14ac:dyDescent="0.45">
@@ -10387,10 +10423,10 @@
         <v>296</v>
       </c>
       <c r="I204" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J204">
-        <v>1.2019016374692689E-4</v>
+        <v>1.1518803584531432E-4</v>
       </c>
     </row>
     <row r="205" spans="8:10" x14ac:dyDescent="0.45">
@@ -10398,10 +10434,10 @@
         <v>296</v>
       </c>
       <c r="I205" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J205">
-        <v>1.201819420795537E-4</v>
+        <v>1.1545105768338673E-4</v>
       </c>
     </row>
     <row r="206" spans="8:10" x14ac:dyDescent="0.45">
@@ -10409,10 +10445,10 @@
         <v>296</v>
       </c>
       <c r="I206" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J206">
-        <v>1.2023949375116605E-4</v>
+        <v>1.1588417073151882E-4</v>
       </c>
     </row>
     <row r="207" spans="8:10" x14ac:dyDescent="0.45">
@@ -10420,10 +10456,10 @@
         <v>296</v>
       </c>
       <c r="I207" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J207">
-        <v>1.2005450623526916E-4</v>
+        <v>1.1574730926117278E-4</v>
       </c>
     </row>
     <row r="208" spans="8:10" x14ac:dyDescent="0.45">
@@ -10431,10 +10467,10 @@
         <v>296</v>
       </c>
       <c r="I208" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J208">
-        <v>1.1952861315436227E-4</v>
+        <v>1.1574730926117278E-4</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -10442,10 +10478,10 @@
         <v>296</v>
       </c>
       <c r="I209" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J209">
-        <v>1.1908170680643357E-4</v>
+        <v>1.1566902224727114E-4</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -10453,10 +10489,10 @@
         <v>296</v>
       </c>
       <c r="I210" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J210">
-        <v>1.1797148808007455E-4</v>
+        <v>1.1551554590706828E-4</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -10464,10 +10500,98 @@
         <v>296</v>
       </c>
       <c r="I211" t="s">
+        <v>279</v>
+      </c>
+      <c r="J211">
+        <v>1.1516550720822032E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H212" t="s">
+        <v>296</v>
+      </c>
+      <c r="I212" t="s">
+        <v>280</v>
+      </c>
+      <c r="J212">
+        <v>1.1526885733088903E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H213" t="s">
+        <v>296</v>
+      </c>
+      <c r="I213" t="s">
+        <v>281</v>
+      </c>
+      <c r="J213">
+        <v>1.1526097230790612E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H214" t="s">
+        <v>296</v>
+      </c>
+      <c r="I214" t="s">
+        <v>282</v>
+      </c>
+      <c r="J214">
+        <v>1.1531616746878642E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H215" t="s">
+        <v>296</v>
+      </c>
+      <c r="I215" t="s">
+        <v>283</v>
+      </c>
+      <c r="J215">
+        <v>1.1513875445167119E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H216" t="s">
+        <v>296</v>
+      </c>
+      <c r="I216" t="s">
+        <v>284</v>
+      </c>
+      <c r="J216">
+        <v>1.1463439458872934E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H217" t="s">
+        <v>296</v>
+      </c>
+      <c r="I217" t="s">
+        <v>285</v>
+      </c>
+      <c r="J217">
+        <v>1.1420578726801605E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H218" t="s">
+        <v>296</v>
+      </c>
+      <c r="I218" t="s">
         <v>286</v>
       </c>
-      <c r="J211">
-        <v>1.1741858094922717E-4</v>
+      <c r="J218">
+        <v>1.1314102755736102E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H219" t="s">
+        <v>296</v>
+      </c>
+      <c r="I219" t="s">
+        <v>287</v>
+      </c>
+      <c r="J219">
+        <v>1.1261075976176108E-4</v>
       </c>
     </row>
   </sheetData>
